--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>goal_time</t>
+          <t>goal_minute</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -626,7 +626,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -648,12 +648,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -696,7 +700,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -718,12 +722,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -770,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -792,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R5" t="inlineStr"/>
     </row>
@@ -844,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -866,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
@@ -918,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -940,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="R7" t="inlineStr"/>
     </row>
@@ -992,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1014,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
@@ -1066,7 +1074,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1088,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
@@ -1126,7 +1134,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1196,7 +1204,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1218,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
@@ -1245,7 +1253,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -1270,7 +1278,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1289,10 +1297,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1319,7 +1327,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
@@ -1344,7 +1352,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1366,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -1393,7 +1401,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>62</v>
@@ -1418,7 +1426,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1440,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1467,7 +1475,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>73</v>
@@ -1492,7 +1500,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1514,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -1541,7 +1549,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>77</v>
@@ -1566,7 +1574,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1588,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr"/>
     </row>
@@ -1615,7 +1623,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>82</v>
@@ -1640,7 +1648,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1662,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="inlineStr"/>
     </row>
@@ -1689,7 +1697,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>89</v>
@@ -1714,7 +1722,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1736,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr"/>
     </row>
@@ -1774,7 +1782,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1844,7 +1852,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1866,16 +1874,12 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1897,7 +1901,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
@@ -1922,7 +1926,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1941,13 +1945,13 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="inlineStr"/>
     </row>
@@ -1971,7 +1975,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>50</v>
@@ -1996,7 +2000,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,19 +2019,15 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>54</v>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2096,16 +2096,12 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2127,7 +2123,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>59</v>
@@ -2152,7 +2148,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2171,13 +2167,13 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" t="inlineStr"/>
     </row>
@@ -2201,7 +2197,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>76</v>
@@ -2226,7 +2222,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2245,19 +2241,15 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2290,7 +2282,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2360,7 +2352,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2382,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr"/>
     </row>
@@ -2409,7 +2401,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
@@ -2434,7 +2426,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2453,7 +2445,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2483,7 +2475,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>14</v>
@@ -2508,7 +2500,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2533,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr"/>
     </row>
@@ -2557,7 +2549,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
@@ -2582,7 +2574,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2604,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" t="inlineStr"/>
     </row>
@@ -2631,7 +2623,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>27</v>
@@ -2656,7 +2648,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2678,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr"/>
     </row>
@@ -2705,7 +2697,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>36</v>
@@ -2730,7 +2722,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2752,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R32" t="inlineStr"/>
     </row>
@@ -2779,7 +2771,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>62</v>
@@ -2804,7 +2796,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2826,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr"/>
     </row>
@@ -2853,7 +2845,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>80</v>
@@ -2878,7 +2870,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2900,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
     </row>
@@ -2938,7 +2930,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3008,7 +3000,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3030,16 +3022,12 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3082,7 +3070,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3104,16 +3092,12 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3135,7 +3119,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -3160,7 +3144,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3179,7 +3163,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3187,11 +3171,7 @@
       <c r="Q38" t="n">
         <v>1</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3213,7 +3193,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
@@ -3238,7 +3218,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3257,13 +3237,13 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr"/>
     </row>
@@ -3287,7 +3267,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>42</v>
@@ -3312,7 +3292,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3331,13 +3311,13 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr"/>
     </row>
@@ -3361,7 +3341,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>68</v>
@@ -3386,7 +3366,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3405,13 +3385,13 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R41" t="inlineStr"/>
     </row>
@@ -3435,7 +3415,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>70</v>
@@ -3460,7 +3440,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3482,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr"/>
     </row>
@@ -3509,7 +3489,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>87</v>
@@ -3534,7 +3514,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3556,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr"/>
     </row>
@@ -3594,7 +3574,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3664,7 +3644,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3686,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="R45" t="inlineStr"/>
     </row>
@@ -3734,7 +3714,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3756,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="R46" t="inlineStr"/>
     </row>
@@ -3808,7 +3788,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3833,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="R47" t="inlineStr"/>
     </row>
@@ -3882,7 +3862,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3907,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="R48" t="inlineStr"/>
     </row>
@@ -3942,7 +3922,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4016,7 +3996,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4038,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R50" t="inlineStr"/>
     </row>
@@ -4090,7 +4070,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4112,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R51" t="inlineStr"/>
     </row>
@@ -4164,7 +4144,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4186,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52" t="inlineStr"/>
     </row>
@@ -4213,7 +4193,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>62</v>
@@ -4238,7 +4218,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4257,13 +4237,13 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr"/>
     </row>
@@ -4287,7 +4267,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>63</v>
@@ -4312,7 +4292,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4334,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="inlineStr"/>
     </row>
@@ -4361,7 +4341,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>68</v>
@@ -4386,7 +4366,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4405,13 +4385,13 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr"/>
     </row>
@@ -4446,7 +4426,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4520,7 +4500,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4542,16 +4522,12 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4598,7 +4574,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4620,16 +4596,12 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4676,7 +4648,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4698,16 +4670,12 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4754,7 +4722,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4776,16 +4744,12 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4832,7 +4796,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4857,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R61" t="inlineStr"/>
     </row>
@@ -4892,7 +4856,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4966,7 +4930,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4988,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>3</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>6</v>
       </c>
       <c r="R63" t="inlineStr"/>
     </row>
@@ -5040,7 +5004,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5114,7 +5078,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5139,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R65" t="inlineStr"/>
     </row>
@@ -5188,7 +5152,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5213,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R66" t="inlineStr"/>
     </row>
@@ -5262,7 +5226,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5287,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R67" t="inlineStr"/>
     </row>
@@ -5336,7 +5300,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5361,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R68" t="inlineStr"/>
     </row>
@@ -5410,7 +5374,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5432,16 +5396,12 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5474,7 +5434,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5548,7 +5508,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5570,10 +5530,10 @@
         <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="inlineStr"/>
     </row>
@@ -5622,7 +5582,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5644,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R72" t="inlineStr"/>
     </row>
@@ -5696,7 +5656,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5770,7 +5730,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5844,7 +5804,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5866,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
@@ -5904,7 +5864,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5978,7 +5938,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6000,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R77" t="inlineStr"/>
     </row>
@@ -6052,7 +6012,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6074,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R78" t="inlineStr"/>
     </row>
@@ -6126,7 +6086,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6148,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R79" t="inlineStr"/>
     </row>
@@ -6186,7 +6146,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6235,7 +6195,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>11</v>
@@ -6260,7 +6220,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6279,13 +6239,13 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr"/>
     </row>
@@ -6309,7 +6269,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>58</v>
@@ -6334,7 +6294,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6356,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="inlineStr"/>
     </row>
@@ -6383,7 +6343,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>71</v>
@@ -6408,7 +6368,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6427,13 +6387,13 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="inlineStr"/>
     </row>
@@ -6468,7 +6428,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6538,7 +6498,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6612,7 +6572,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6634,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr"/>
     </row>
@@ -6686,7 +6646,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6746,7 +6706,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6816,7 +6776,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6838,10 +6798,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R89" t="inlineStr"/>
     </row>
@@ -6865,7 +6825,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>5</v>
@@ -6890,7 +6850,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6909,19 +6869,15 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6943,7 +6899,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>43</v>
@@ -6968,7 +6924,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6987,13 +6943,13 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R91" t="inlineStr"/>
     </row>
@@ -7017,7 +6973,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>47</v>
@@ -7042,7 +6998,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7061,19 +7017,15 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7095,7 +7047,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>77</v>
@@ -7120,7 +7072,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7139,13 +7091,13 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R93" t="inlineStr"/>
     </row>
@@ -7614,7 +7566,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7684,7 +7636,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7758,7 +7710,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7832,7 +7784,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7906,7 +7858,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7980,7 +7932,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8054,7 +8006,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8128,7 +8080,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8988,7 +8940,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9062,7 +9014,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9136,7 +9088,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9640,7 +9592,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9714,7 +9666,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -9936,7 +9888,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10010,7 +9962,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10084,7 +10036,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10144,7 +10096,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10214,7 +10166,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10284,7 +10236,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10358,7 +10310,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -10432,7 +10384,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10506,7 +10458,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10566,7 +10518,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10636,7 +10588,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10710,7 +10662,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10784,7 +10736,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10858,7 +10810,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10932,7 +10884,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10992,7 +10944,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11062,7 +11014,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11136,7 +11088,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11210,7 +11162,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11284,7 +11236,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11358,7 +11310,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11418,7 +11370,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11488,7 +11440,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11562,7 +11514,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11636,7 +11588,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11710,7 +11662,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11784,7 +11736,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11858,7 +11810,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11932,7 +11884,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -12006,7 +11958,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -12080,7 +12032,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12140,7 +12092,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12210,7 +12162,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12284,7 +12236,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12436,7 +12388,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12510,7 +12462,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12584,7 +12536,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12658,7 +12610,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -14592,7 +14544,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -14662,7 +14614,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14736,7 +14688,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14810,7 +14762,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14884,7 +14836,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -15592,7 +15544,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15662,7 +15614,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15736,7 +15688,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15810,7 +15762,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15884,7 +15836,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15958,7 +15910,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16032,7 +15984,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16236,7 +16188,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16310,7 +16262,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16384,7 +16336,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16458,7 +16410,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16532,7 +16484,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16606,7 +16558,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -17674,7 +17626,7 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17744,7 +17696,7 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17818,7 +17770,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17892,7 +17844,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17966,7 +17918,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18040,7 +17992,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18114,7 +18066,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18674,7 +18626,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18896,7 +18848,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18970,7 +18922,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19048,7 +19000,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19274,7 +19226,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19352,7 +19304,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -20694,7 +20646,7 @@
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20764,7 +20716,7 @@
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20912,7 +20864,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20986,7 +20938,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -21064,7 +21016,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21138,7 +21090,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21212,7 +21164,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21272,7 +21224,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21342,7 +21294,7 @@
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21412,7 +21364,7 @@
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21486,7 +21438,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21560,7 +21512,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21620,7 +21572,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21690,7 +21642,7 @@
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21764,7 +21716,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21838,7 +21790,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21912,7 +21864,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21986,7 +21938,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -23124,7 +23076,7 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23194,7 +23146,7 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23264,7 +23216,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23338,7 +23290,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23412,7 +23364,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -23486,7 +23438,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -23546,7 +23498,7 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -23616,7 +23568,7 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -23690,7 +23642,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -23768,7 +23720,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -23846,7 +23798,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -23910,7 +23862,7 @@
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -23980,7 +23932,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -24050,7 +24002,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -24124,7 +24076,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -24198,7 +24150,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -24272,7 +24224,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -24346,7 +24298,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -24420,7 +24372,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -24480,7 +24432,7 @@
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -24554,7 +24506,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -24628,7 +24580,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -24702,7 +24654,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -24776,7 +24728,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -24850,7 +24802,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -24924,7 +24876,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -24998,7 +24950,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -25072,7 +25024,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -25146,7 +25098,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -25206,7 +25158,7 @@
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -25276,7 +25228,7 @@
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -25346,7 +25298,7 @@
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -25420,7 +25372,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -26132,7 +26084,7 @@
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -26206,7 +26158,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -26284,7 +26236,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -26358,7 +26310,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -26432,7 +26384,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -26506,7 +26458,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -26580,7 +26532,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -26654,7 +26606,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -26728,7 +26680,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -26802,7 +26754,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -26862,7 +26814,7 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -26932,7 +26884,7 @@
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -27006,7 +26958,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -27084,7 +27036,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -27162,7 +27114,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -27236,7 +27188,7 @@
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -27296,7 +27248,7 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -27366,7 +27318,7 @@
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -27440,7 +27392,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -27514,7 +27466,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -27588,7 +27540,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -27666,7 +27618,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -28092,7 +28044,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -28117,7 +28069,7 @@
         <v>3</v>
       </c>
       <c r="Q385" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R385" t="inlineStr"/>
     </row>
@@ -28166,7 +28118,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -28188,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="P386" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q386" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R386" t="inlineStr"/>
     </row>
@@ -28215,7 +28167,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="n">
         <v>95</v>
@@ -28240,7 +28192,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Saudi Arabia', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -28259,13 +28211,13 @@
         </is>
       </c>
       <c r="O387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P387" t="n">
         <v>3</v>
       </c>
       <c r="Q387" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R387" t="inlineStr"/>
     </row>
@@ -28300,7 +28252,7 @@
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -28370,7 +28322,7 @@
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -28392,10 +28344,10 @@
         <v>0</v>
       </c>
       <c r="P389" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q389" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R389" t="inlineStr"/>
     </row>
@@ -28444,7 +28396,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -28466,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="P390" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q390" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R390" t="inlineStr"/>
     </row>
@@ -28518,7 +28470,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -28543,7 +28495,7 @@
         <v>3</v>
       </c>
       <c r="Q391" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R391" t="inlineStr"/>
     </row>
@@ -28592,7 +28544,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay', 'Russia']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -28614,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="P392" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q392" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R392" t="inlineStr"/>
     </row>
@@ -28652,7 +28604,7 @@
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -28726,7 +28678,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -28748,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="P394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R394" t="inlineStr"/>
     </row>
@@ -28800,7 +28752,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -28822,10 +28774,10 @@
         <v>0</v>
       </c>
       <c r="P395" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R395" t="inlineStr"/>
     </row>
@@ -28874,7 +28826,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -28896,10 +28848,10 @@
         <v>0</v>
       </c>
       <c r="P396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R396" t="inlineStr"/>
     </row>
@@ -28948,7 +28900,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -28973,13 +28925,9 @@
         <v>2</v>
       </c>
       <c r="Q397" t="n">
-        <v>1</v>
-      </c>
-      <c r="R397" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -29026,7 +28974,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -29051,13 +28999,9 @@
         <v>2</v>
       </c>
       <c r="Q398" t="n">
-        <v>1</v>
-      </c>
-      <c r="R398" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -29104,7 +29048,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -29126,10 +29070,10 @@
         <v>0</v>
       </c>
       <c r="P399" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R399" t="inlineStr"/>
     </row>
@@ -29164,7 +29108,7 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -29234,7 +29178,7 @@
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -29256,10 +29200,10 @@
         <v>0</v>
       </c>
       <c r="P401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R401" t="inlineStr"/>
     </row>
@@ -29304,7 +29248,7 @@
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -29326,10 +29270,10 @@
         <v>0</v>
       </c>
       <c r="P402" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R402" t="inlineStr"/>
     </row>
@@ -29353,7 +29297,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F403" t="n">
         <v>18</v>
@@ -29378,7 +29322,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>['Peru', 'Denmark', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -29397,13 +29341,13 @@
         </is>
       </c>
       <c r="O403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P403" t="n">
         <v>2</v>
       </c>
       <c r="Q403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R403" t="inlineStr"/>
     </row>
@@ -29427,7 +29371,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404" t="n">
         <v>50</v>
@@ -29452,7 +29396,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>['Peru', 'Denmark', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -29477,7 +29421,7 @@
         <v>2</v>
       </c>
       <c r="Q404" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R404" t="inlineStr"/>
     </row>
@@ -29512,7 +29456,7 @@
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia', 'Iceland']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -29586,7 +29530,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -29611,7 +29555,7 @@
         <v>1</v>
       </c>
       <c r="Q406" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R406" t="inlineStr"/>
     </row>
@@ -29660,7 +29604,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia', 'Iceland']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -29682,10 +29626,10 @@
         <v>1</v>
       </c>
       <c r="P407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R407" t="inlineStr"/>
     </row>
@@ -29709,7 +29653,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F408" t="n">
         <v>53</v>
@@ -29734,7 +29678,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia', 'Argentina']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -29753,13 +29697,13 @@
         </is>
       </c>
       <c r="O408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q408" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R408" t="inlineStr"/>
     </row>
@@ -29783,7 +29727,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F409" t="n">
         <v>76</v>
@@ -29808,7 +29752,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia', 'Iceland']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -29827,13 +29771,13 @@
         </is>
       </c>
       <c r="O409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R409" t="inlineStr"/>
     </row>
@@ -29857,7 +29801,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F410" t="n">
         <v>86</v>
@@ -29882,7 +29826,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -29907,7 +29851,7 @@
         <v>1</v>
       </c>
       <c r="Q410" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R410" t="inlineStr"/>
     </row>
@@ -29931,7 +29875,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F411" t="n">
         <v>90</v>
@@ -29956,7 +29900,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -29978,10 +29922,10 @@
         <v>0</v>
       </c>
       <c r="P411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q411" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R411" t="inlineStr"/>
     </row>
@@ -30016,7 +29960,7 @@
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -30086,7 +30030,7 @@
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -30108,10 +30052,10 @@
         <v>0</v>
       </c>
       <c r="P413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R413" t="inlineStr"/>
     </row>
@@ -30160,7 +30104,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -30179,10 +30123,10 @@
         </is>
       </c>
       <c r="O414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P414" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q414" t="n">
         <v>0</v>
@@ -30234,7 +30178,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -30256,10 +30200,10 @@
         <v>0</v>
       </c>
       <c r="P415" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q415" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R415" t="inlineStr"/>
     </row>
@@ -30304,7 +30248,7 @@
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -30326,10 +30270,10 @@
         <v>0</v>
       </c>
       <c r="P416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R416" t="inlineStr"/>
     </row>
@@ -30353,7 +30297,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
         <v>50</v>
@@ -30378,7 +30322,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -30397,15 +30341,19 @@
         </is>
       </c>
       <c r="O417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q417" t="n">
-        <v>2</v>
-      </c>
-      <c r="R417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -30427,7 +30375,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
         <v>62</v>
@@ -30452,7 +30400,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -30474,12 +30422,16 @@
         <v>0</v>
       </c>
       <c r="P418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q418" t="n">
-        <v>2</v>
-      </c>
-      <c r="R418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -30501,7 +30453,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F419" t="n">
         <v>74</v>
@@ -30526,7 +30478,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden', 'Germany']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -30548,12 +30500,16 @@
         <v>0</v>
       </c>
       <c r="P419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q419" t="n">
-        <v>2</v>
-      </c>
-      <c r="R419" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -30586,7 +30542,7 @@
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -30656,7 +30612,7 @@
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -30678,10 +30634,10 @@
         <v>0</v>
       </c>
       <c r="P421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R421" t="inlineStr"/>
     </row>
@@ -30730,7 +30686,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -30752,10 +30708,10 @@
         <v>0</v>
       </c>
       <c r="P422" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R422" t="inlineStr"/>
     </row>
@@ -30804,7 +30760,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -30826,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="P423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q423" t="n">
         <v>3</v>
@@ -30878,7 +30834,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -30952,7 +30908,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -30977,13 +30933,9 @@
         <v>2</v>
       </c>
       <c r="Q425" t="n">
-        <v>1</v>
-      </c>
-      <c r="R425" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -31030,7 +30982,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -31052,10 +31004,10 @@
         <v>0</v>
       </c>
       <c r="P426" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R426" t="inlineStr"/>
     </row>
@@ -31104,7 +31056,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -31129,13 +31081,9 @@
         <v>2</v>
       </c>
       <c r="Q427" t="n">
-        <v>1</v>
-      </c>
-      <c r="R427" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -31168,7 +31116,7 @@
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -31238,7 +31186,7 @@
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -31260,10 +31208,10 @@
         <v>0</v>
       </c>
       <c r="P429" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q429" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R429" t="inlineStr"/>
     </row>
@@ -31312,7 +31260,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -31334,10 +31282,10 @@
         <v>0</v>
       </c>
       <c r="P430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q430" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="R430" t="inlineStr"/>
     </row>
@@ -31382,7 +31330,7 @@
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -31404,10 +31352,10 @@
         <v>0</v>
       </c>
       <c r="P431" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q431" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R431" t="inlineStr"/>
     </row>
@@ -31431,7 +31379,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" t="n">
         <v>74</v>
@@ -31456,7 +31404,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -31475,13 +31423,13 @@
         </is>
       </c>
       <c r="O432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R432" t="inlineStr"/>
     </row>
@@ -31516,7 +31464,7 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -31586,7 +31534,7 @@
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -31608,10 +31556,10 @@
         <v>0</v>
       </c>
       <c r="P434" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q434" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R434" t="inlineStr"/>
     </row>
@@ -31635,7 +31583,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F435" t="n">
         <v>51</v>
@@ -31660,7 +31608,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>['Belgium', 'Panama', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -31685,7 +31633,7 @@
         <v>3</v>
       </c>
       <c r="Q435" t="n">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="R435" t="inlineStr"/>
     </row>
@@ -31709,7 +31657,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436" t="n">
         <v>33</v>
@@ -31734,7 +31682,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>['Belgium', 'Panama', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -31753,13 +31701,13 @@
         </is>
       </c>
       <c r="O436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P436" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q436" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="R436" t="inlineStr"/>
     </row>
@@ -31783,7 +31731,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F437" t="n">
         <v>51</v>
@@ -31808,7 +31756,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -31827,13 +31775,13 @@
         </is>
       </c>
       <c r="O437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P437" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q437" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R437" t="inlineStr"/>
     </row>
@@ -31857,7 +31805,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F438" t="n">
         <v>66</v>
@@ -31882,7 +31830,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -31907,7 +31855,7 @@
         <v>3</v>
       </c>
       <c r="Q438" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R438" t="inlineStr"/>
     </row>
@@ -31942,7 +31890,7 @@
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -32012,7 +31960,7 @@
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -32034,10 +31982,10 @@
         <v>0</v>
       </c>
       <c r="P440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q440" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R440" t="inlineStr"/>
     </row>
@@ -32086,7 +32034,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -32108,10 +32056,10 @@
         <v>0</v>
       </c>
       <c r="P441" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q441" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R441" t="inlineStr"/>
     </row>
@@ -32135,7 +32083,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F442" t="n">
         <v>44</v>
@@ -32160,7 +32108,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -32179,13 +32127,13 @@
         </is>
       </c>
       <c r="O442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P442" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q442" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R442" t="inlineStr"/>
     </row>
@@ -32209,7 +32157,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443" t="n">
         <v>49</v>
@@ -32234,7 +32182,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -32256,10 +32204,10 @@
         <v>0</v>
       </c>
       <c r="P443" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q443" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R443" t="inlineStr"/>
     </row>
@@ -32283,7 +32231,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F444" t="n">
         <v>67</v>
@@ -32308,7 +32256,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -32327,13 +32275,13 @@
         </is>
       </c>
       <c r="O444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P444" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q444" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R444" t="inlineStr"/>
     </row>
@@ -32357,7 +32305,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F445" t="n">
         <v>70</v>
@@ -32382,7 +32330,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal', 'Ecuador']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -32401,13 +32349,13 @@
         </is>
       </c>
       <c r="O445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P445" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q445" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R445" t="inlineStr"/>
     </row>
@@ -32442,7 +32390,7 @@
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -32512,7 +32460,7 @@
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -32537,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="Q447" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R447" t="inlineStr"/>
     </row>
@@ -32582,7 +32530,7 @@
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -32607,7 +32555,7 @@
         <v>1</v>
       </c>
       <c r="Q448" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R448" t="inlineStr"/>
     </row>
@@ -32631,7 +32579,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449" t="n">
         <v>38</v>
@@ -32656,7 +32604,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -32675,13 +32623,13 @@
         </is>
       </c>
       <c r="O449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q449" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R449" t="inlineStr"/>
     </row>
@@ -32705,7 +32653,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450" t="n">
         <v>50</v>
@@ -32730,7 +32678,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -32755,7 +32703,7 @@
         <v>2</v>
       </c>
       <c r="Q450" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R450" t="inlineStr"/>
     </row>
@@ -32779,7 +32727,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451" t="n">
         <v>51</v>
@@ -32804,7 +32752,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -32829,7 +32777,7 @@
         <v>2</v>
       </c>
       <c r="Q451" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R451" t="inlineStr"/>
     </row>
@@ -32853,7 +32801,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452" t="n">
         <v>68</v>
@@ -32878,7 +32826,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>['United States', 'Iran', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -32903,7 +32851,7 @@
         <v>2</v>
       </c>
       <c r="Q452" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R452" t="inlineStr"/>
     </row>
@@ -32938,7 +32886,7 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -33008,7 +32956,7 @@
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -33030,12 +32978,16 @@
         <v>0</v>
       </c>
       <c r="P454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q454" t="n">
-        <v>0</v>
-      </c>
-      <c r="R454" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -33078,7 +33030,7 @@
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
-          <t>['Denmark', 'Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -33100,12 +33052,16 @@
         <v>0</v>
       </c>
       <c r="P455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q455" t="n">
-        <v>0</v>
-      </c>
-      <c r="R455" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -33127,7 +33083,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F456" t="n">
         <v>58</v>
@@ -33152,7 +33108,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -33171,19 +33127,15 @@
         </is>
       </c>
       <c r="O456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q456" t="n">
-        <v>1</v>
-      </c>
-      <c r="R456" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="R456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -33205,7 +33157,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457" t="n">
         <v>60</v>
@@ -33230,7 +33182,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -33252,10 +33204,10 @@
         <v>0</v>
       </c>
       <c r="P457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q457" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R457" t="inlineStr"/>
     </row>
@@ -33290,7 +33242,7 @@
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Saudi Arabia']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -33360,7 +33312,7 @@
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Saudi Arabia']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -33382,10 +33334,10 @@
         <v>0</v>
       </c>
       <c r="P459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q459" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R459" t="inlineStr"/>
     </row>
@@ -33409,7 +33361,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" t="n">
         <v>46</v>
@@ -33434,7 +33386,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Saudi Arabia']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -33453,19 +33405,15 @@
         </is>
       </c>
       <c r="O460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q460" t="n">
-        <v>1</v>
-      </c>
-      <c r="R460" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -33512,7 +33460,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>['Mexico', 'Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -33531,13 +33479,13 @@
         </is>
       </c>
       <c r="O461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R461" t="inlineStr"/>
     </row>
@@ -33586,7 +33534,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>['Mexico', 'Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -33608,10 +33556,10 @@
         <v>0</v>
       </c>
       <c r="P462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q462" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R462" t="inlineStr"/>
     </row>
@@ -33660,7 +33608,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>['Mexico', 'Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -33682,10 +33630,10 @@
         <v>0</v>
       </c>
       <c r="P463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R463" t="inlineStr"/>
     </row>
@@ -33734,7 +33682,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>['Mexico', 'Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -33756,7 +33704,7 @@
         <v>0</v>
       </c>
       <c r="P464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33794,7 +33742,7 @@
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia', 'Morocco']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -33864,7 +33812,7 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia', 'Morocco']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -33886,7 +33834,7 @@
         <v>0</v>
       </c>
       <c r="P466" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q466" t="n">
         <v>3</v>
@@ -33938,7 +33886,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia', 'Morocco']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -33960,7 +33908,7 @@
         <v>0</v>
       </c>
       <c r="P467" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q467" t="n">
         <v>4</v>
@@ -34012,7 +33960,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia', 'Morocco']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -34034,10 +33982,10 @@
         <v>0</v>
       </c>
       <c r="P468" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q468" t="n">
         <v>4</v>
-      </c>
-      <c r="Q468" t="n">
-        <v>5</v>
       </c>
       <c r="R468" t="inlineStr"/>
     </row>
@@ -34086,7 +34034,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia', 'Morocco']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -34108,7 +34056,7 @@
         <v>0</v>
       </c>
       <c r="P469" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q469" t="n">
         <v>4</v>
@@ -34146,7 +34094,7 @@
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -34220,7 +34168,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -34242,10 +34190,10 @@
         <v>1</v>
       </c>
       <c r="P471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q471" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R471" t="inlineStr"/>
     </row>
@@ -34294,7 +34242,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -34316,10 +34264,10 @@
         <v>1</v>
       </c>
       <c r="P472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q472" t="n">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="R472" t="inlineStr"/>
     </row>
@@ -34368,7 +34316,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -34390,10 +34338,10 @@
         <v>1</v>
       </c>
       <c r="P473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q473" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R473" t="inlineStr"/>
     </row>
@@ -34442,7 +34390,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -34464,10 +34412,10 @@
         <v>0</v>
       </c>
       <c r="P474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q474" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R474" t="inlineStr"/>
     </row>
@@ -34491,7 +34439,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F475" t="n">
         <v>58</v>
@@ -34516,7 +34464,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -34535,19 +34483,15 @@
         </is>
       </c>
       <c r="O475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q475" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R475" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="R475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -34594,7 +34538,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -34613,13 +34557,13 @@
         </is>
       </c>
       <c r="O476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q476" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="R476" t="inlineStr"/>
     </row>
@@ -34643,7 +34587,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F477" t="n">
         <v>73</v>
@@ -34668,7 +34612,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -34687,19 +34631,15 @@
         </is>
       </c>
       <c r="O477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q477" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R477" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="R477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -34746,7 +34686,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -34765,13 +34705,13 @@
         </is>
       </c>
       <c r="O478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q478" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R478" t="inlineStr"/>
     </row>
@@ -34820,7 +34760,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -34842,10 +34782,10 @@
         <v>0</v>
       </c>
       <c r="P479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q479" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R479" t="inlineStr"/>
     </row>
@@ -34880,7 +34820,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -34950,7 +34890,7 @@
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -34972,12 +34912,16 @@
         <v>0</v>
       </c>
       <c r="P481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
       </c>
-      <c r="R481" t="inlineStr"/>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -34999,7 +34943,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
         <v>5</v>
@@ -35024,7 +34968,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Ghana', 'Portugal']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -35043,13 +34987,13 @@
         </is>
       </c>
       <c r="O482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R482" t="inlineStr"/>
     </row>
@@ -35098,7 +35042,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Ghana', 'Portugal']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -35117,13 +35061,13 @@
         </is>
       </c>
       <c r="O483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R483" t="inlineStr"/>
     </row>
@@ -35172,7 +35116,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Ghana', 'Portugal']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -35246,7 +35190,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Ghana', 'Portugal']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -35271,7 +35215,7 @@
         <v>1</v>
       </c>
       <c r="Q485" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R485" t="inlineStr"/>
     </row>
@@ -35320,7 +35264,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -35342,10 +35286,10 @@
         <v>1</v>
       </c>
       <c r="P486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R486" t="inlineStr"/>
     </row>
@@ -35380,7 +35324,7 @@
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -35450,7 +35394,7 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -35472,12 +35416,16 @@
         <v>0</v>
       </c>
       <c r="P488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
       </c>
-      <c r="R488" t="inlineStr"/>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -35524,7 +35472,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -35546,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="P489" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q489" t="n">
         <v>2</v>
@@ -35598,7 +35546,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -35620,12 +35568,16 @@
         <v>0</v>
       </c>
       <c r="P490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
       </c>
-      <c r="R490" t="inlineStr"/>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -35672,7 +35624,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -35746,7 +35698,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -35768,12 +35720,16 @@
         <v>1</v>
       </c>
       <c r="P492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
       </c>
-      <c r="R492" t="inlineStr"/>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -35820,7 +35776,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -35842,7 +35798,7 @@
         <v>0</v>
       </c>
       <c r="P493" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q493" t="n">
         <v>2</v>
@@ -35894,7 +35850,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -35916,10 +35872,10 @@
         <v>0</v>
       </c>
       <c r="P494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q494" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R494" t="inlineStr"/>
     </row>

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -626,7 +626,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -700,7 +700,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1134,7 +1134,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1204,7 +1204,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2282,7 +2282,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2352,7 +2352,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2930,7 +2930,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3000,7 +3000,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3574,7 +3574,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3644,7 +3644,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3714,7 +3714,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4426,7 +4426,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4856,7 +4856,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5864,7 +5864,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6146,7 +6146,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6706,7 +6706,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6776,7 +6776,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7132,7 +7132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7566,7 +7566,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7636,7 +7636,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10096,7 +10096,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10166,7 +10166,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10236,7 +10236,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11370,7 +11370,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11440,7 +11440,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12092,7 +12092,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12162,7 +12162,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12236,7 +12236,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12670,7 +12670,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12740,7 +12740,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14896,7 +14896,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14966,7 +14966,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15544,7 +15544,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15614,7 +15614,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15984,7 +15984,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16044,7 +16044,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16114,7 +16114,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16188,7 +16188,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16618,7 +16618,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16688,7 +16688,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17058,7 +17058,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17192,7 +17192,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -18126,7 +18126,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18196,7 +18196,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18344,7 +18344,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18626,7 +18626,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18922,7 +18922,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19304,7 +19304,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21790,7 +21790,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -21998,7 +21998,7 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22068,7 +22068,7 @@
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -23076,7 +23076,7 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23146,7 +23146,7 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23216,7 +23216,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23290,7 +23290,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23364,7 +23364,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -23438,7 +23438,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -23498,7 +23498,7 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -23568,7 +23568,7 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -23642,7 +23642,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -23720,7 +23720,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -23798,7 +23798,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -23862,7 +23862,7 @@
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -23932,7 +23932,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -24002,7 +24002,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -24150,7 +24150,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -24298,7 +24298,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -24372,7 +24372,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -26814,7 +26814,7 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -26884,7 +26884,7 @@
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -27036,7 +27036,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -27114,7 +27114,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -27188,7 +27188,7 @@
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -27248,7 +27248,7 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -27318,7 +27318,7 @@
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -27466,7 +27466,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -27540,7 +27540,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -27618,7 +27618,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -27678,7 +27678,7 @@
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -27748,7 +27748,7 @@
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -27822,7 +27822,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -27970,7 +27970,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -29456,7 +29456,7 @@
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -29604,7 +29604,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -29678,7 +29678,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -29752,7 +29752,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -31116,7 +31116,7 @@
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -31186,7 +31186,7 @@
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -31260,7 +31260,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -31330,7 +31330,7 @@
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -31464,7 +31464,7 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -31534,7 +31534,7 @@
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -31608,7 +31608,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -31830,7 +31830,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -31890,7 +31890,7 @@
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -31960,7 +31960,7 @@
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -32108,7 +32108,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -32182,7 +32182,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -32256,7 +32256,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -32330,7 +32330,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -32886,7 +32886,7 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -32956,7 +32956,7 @@
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -33030,7 +33030,7 @@
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -33108,7 +33108,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -33182,7 +33182,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -33242,7 +33242,7 @@
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -33312,7 +33312,7 @@
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -33742,7 +33742,7 @@
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -33812,7 +33812,7 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -33886,7 +33886,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -33960,7 +33960,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -34034,7 +34034,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -34094,7 +34094,7 @@
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -34242,7 +34242,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -35624,7 +35624,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7334,7 +7334,9 @@
       <c r="T81" t="n">
         <v>1</v>
       </c>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>1892</v>
+      </c>
       <c r="V81" t="n">
         <v>2033</v>
       </c>
@@ -7381,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7454,7 +7456,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -7464,12 +7466,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7479,7 +7481,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7499,7 +7501,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland']</t>
+          <t>['England', 'Ireland']</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7508,7 +7510,9 @@
       <c r="T83" t="n">
         <v>3</v>
       </c>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="n">
+        <v>1892</v>
+      </c>
       <c r="V83" t="n">
         <v>2033</v>
       </c>
@@ -7610,7 +7614,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -7621,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7631,7 +7635,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7651,7 +7655,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -7660,7 +7664,9 @@
       <c r="T85" t="n">
         <v>1</v>
       </c>
-      <c r="U85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>1863</v>
+      </c>
       <c r="V85" t="n">
         <v>1852</v>
       </c>
@@ -7707,7 +7713,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7717,7 +7723,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7737,7 +7743,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Norway']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -7795,7 +7801,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7805,7 +7811,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7825,7 +7831,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7869,7 +7875,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7949,7 +7955,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8037,7 +8043,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8125,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8213,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8301,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11295,7 +11301,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11379,7 +11385,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11467,7 +11473,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11555,7 +11561,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11643,7 +11649,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11731,7 +11737,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11819,7 +11825,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11893,7 +11899,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11903,7 +11909,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11923,7 +11929,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -11973,7 +11979,7 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -11983,7 +11989,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -12003,7 +12009,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -12051,13 +12057,13 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12067,7 +12073,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -12087,7 +12093,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S137" t="n">
@@ -12099,7 +12105,9 @@
       <c r="U137" t="n">
         <v>1760</v>
       </c>
-      <c r="V137" t="inlineStr"/>
+      <c r="V137" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12133,22 +12141,22 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -12173,7 +12181,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -12185,7 +12193,9 @@
       <c r="U138" t="n">
         <v>1760</v>
       </c>
-      <c r="V138" t="inlineStr"/>
+      <c r="V138" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12229,7 +12239,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12239,7 +12249,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -12259,7 +12269,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S139" t="n">
@@ -12317,7 +12327,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12327,7 +12337,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -12347,7 +12357,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S140" t="n">
@@ -12391,7 +12401,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12471,7 +12481,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12559,7 +12569,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12647,7 +12657,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12735,7 +12745,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12823,7 +12833,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -14261,7 +14271,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14345,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14433,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14521,7 +14531,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14609,7 +14619,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14697,7 +14707,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14785,7 +14795,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14873,7 +14883,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14961,7 +14971,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15049,7 +15059,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15467,7 +15477,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15555,7 +15565,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15643,7 +15653,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15731,7 +15741,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15907,7 +15917,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15995,7 +16005,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16083,7 +16093,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16751,7 +16761,7 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16766,7 +16776,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N192" t="n">
@@ -16831,7 +16841,7 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16846,7 +16856,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N193" t="n">
@@ -16857,7 +16867,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="Q193" t="n">
@@ -16913,13 +16923,13 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16934,7 +16944,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N194" t="n">
@@ -16945,7 +16955,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="Q194" t="n">
@@ -16965,7 +16975,9 @@
       <c r="U194" t="n">
         <v>1703</v>
       </c>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -16999,22 +17011,22 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -17039,7 +17051,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="S195" t="n">
@@ -17051,7 +17063,9 @@
       <c r="U195" t="n">
         <v>1703</v>
       </c>
-      <c r="V195" t="inlineStr"/>
+      <c r="V195" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -17095,7 +17109,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17105,7 +17119,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -17125,7 +17139,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S196" t="n">
@@ -17173,17 +17187,17 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17193,7 +17207,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -17213,7 +17227,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S197" t="n">
@@ -17225,7 +17239,9 @@
       <c r="U197" t="n">
         <v>1703</v>
       </c>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -17269,7 +17285,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17279,7 +17295,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -17299,7 +17315,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S198" t="n">
@@ -17347,17 +17363,17 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17367,7 +17383,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -17387,7 +17403,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S199" t="n">
@@ -17399,7 +17415,9 @@
       <c r="U199" t="n">
         <v>1703</v>
       </c>
-      <c r="V199" t="inlineStr"/>
+      <c r="V199" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -17759,7 +17777,7 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17857,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17945,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18947,7 +18965,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19027,7 +19045,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19115,7 +19133,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19203,7 +19221,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19291,7 +19309,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19379,7 +19397,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19467,7 +19485,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19555,7 +19573,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -23489,7 +23507,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23569,7 +23587,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23653,7 +23671,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23741,7 +23759,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23829,7 +23847,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -24409,7 +24427,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24489,7 +24507,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24665,7 +24683,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24753,7 +24771,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24845,7 +24863,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24933,7 +24951,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25021,7 +25039,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25095,7 +25113,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25175,7 +25193,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25259,7 +25277,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -26701,7 +26719,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26781,7 +26799,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26869,7 +26887,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26957,7 +26975,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27045,7 +27063,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27133,7 +27151,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27221,7 +27239,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27797,7 +27815,7 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27877,7 +27895,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28227,7 +28245,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28311,7 +28329,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28399,7 +28417,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28487,7 +28505,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28575,7 +28593,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28663,7 +28681,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28751,7 +28769,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28839,7 +28857,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28927,7 +28945,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29015,7 +29033,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29089,7 +29107,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29169,7 +29187,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29253,7 +29271,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29341,7 +29359,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29429,7 +29447,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29517,7 +29535,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29605,7 +29623,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29693,7 +29711,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29767,7 +29785,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,7 +29869,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29939,7 +29957,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30027,7 +30045,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30115,7 +30133,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30203,7 +30221,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30291,7 +30309,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30379,7 +30397,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30467,7 +30485,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30793,7 +30811,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -32247,7 +32265,7 @@
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32327,7 +32345,7 @@
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32415,7 +32433,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32503,7 +32521,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32591,7 +32609,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32683,7 +32701,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32757,7 +32775,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32837,7 +32855,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33013,7 +33031,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33101,7 +33119,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33857,7 +33875,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33941,7 +33959,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34029,7 +34047,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34117,7 +34135,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34205,7 +34223,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34293,7 +34311,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34381,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -35467,7 +35485,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35547,7 +35565,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35635,7 +35653,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35723,7 +35741,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35811,7 +35829,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35899,7 +35917,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -35987,7 +36005,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36075,7 +36093,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36401,7 +36419,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36493,7 +36511,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36585,7 +36603,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36677,7 +36695,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36765,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -37759,7 +37777,7 @@
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37839,7 +37857,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37927,7 +37945,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38191,7 +38209,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38943,7 +38961,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39023,7 +39041,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39111,7 +39129,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39199,7 +39217,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39287,7 +39305,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39375,7 +39393,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39463,7 +39481,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39959,7 +39977,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40131,7 +40149,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -41239,7 +41257,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41319,7 +41337,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41411,7 +41429,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41499,7 +41517,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41679,7 +41697,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41771,7 +41789,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41859,7 +41877,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42193,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42281,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42369,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2223,18 +2223,18 @@
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>1892</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2311,18 +2311,18 @@
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>1942</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3667,18 +3667,18 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>1892</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3755,18 +3755,18 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="S39" t="n">
         <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>1892</v>
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5035,18 +5035,18 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S54" t="n">
         <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18983,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19063,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23145,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23225,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32871,34 +32871,38 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="N381" t="n">
+        <v>2</v>
+      </c>
+      <c r="O381" t="n">
+        <v>1</v>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
           <t>Ivory Coast</t>
         </is>
       </c>
-      <c r="N381" t="n">
-        <v>1</v>
-      </c>
-      <c r="O381" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P381" t="inlineStr"/>
       <c r="Q381" t="n">
         <v>0</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U381" t="n">
         <v>1785</v>
@@ -32949,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -32959,19 +32963,19 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
       <c r="N382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O382" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P382" t="inlineStr"/>
       <c r="Q382" t="n">
@@ -32979,14 +32983,14 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="S382" t="n">
         <v>0</v>
       </c>
       <c r="T382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U382" t="n">
         <v>1785</v>
@@ -33037,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33071,7 +33075,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T383" t="n">
         <v>2</v>
@@ -33125,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33213,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33301,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33701,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33781,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33865,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33884,12 +33888,16 @@
         </is>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O393" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="Q393" t="n">
         <v>0</v>
       </c>
@@ -33953,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34045,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34137,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34215,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34299,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34391,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34479,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34567,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34655,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34743,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34831,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34919,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35007,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35081,7 +35089,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35161,7 +35169,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35249,7 +35257,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35337,7 +35345,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35425,7 +35433,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35517,7 +35525,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35591,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35671,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35847,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35935,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -38301,7 +38309,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38381,7 +38389,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38469,7 +38477,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38557,7 +38565,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38645,7 +38653,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38733,7 +38741,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38821,7 +38829,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38909,7 +38917,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38983,7 +38991,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39063,7 +39071,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39147,7 +39155,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39235,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39327,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39419,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39511,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39599,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -40179,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40259,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40343,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40431,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40519,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40593,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40673,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40761,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -41025,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41187,7 +41195,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41267,7 +41275,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41351,7 +41359,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41439,7 +41447,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41527,7 +41535,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41615,7 +41623,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41703,7 +41711,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41777,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41857,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42371,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42451,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42539,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42631,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42719,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42793,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -44073,7 +44081,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44153,7 +44161,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44245,7 +44253,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44333,7 +44341,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44425,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44513,7 +44521,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44605,7 +44613,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44693,7 +44701,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -45027,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -767,18 +767,18 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>1873</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -855,18 +855,18 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>1623</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -943,18 +943,18 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>1623</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1031,18 +1031,18 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>1623</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1119,18 +1119,18 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>1873</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1207,18 +1207,18 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>1623</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1295,18 +1295,18 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>1623</v>
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1537,18 +1537,18 @@
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1811</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1625,18 +1625,18 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1811</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1713,18 +1713,18 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1616</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1801,18 +1801,18 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>1811</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1889,18 +1889,18 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
         <v>1811</v>
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3667,18 +3667,18 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>1892</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>1892</v>
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3997,11 +3997,11 @@
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="S43" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4173,11 +4173,11 @@
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S44" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4261,11 +4261,11 @@
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4349,11 +4349,11 @@
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S46" t="n">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4437,11 +4437,11 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S47" t="n">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S48" t="n">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4859,18 +4859,18 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>1766</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5193,18 +5193,18 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1634</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5281,18 +5281,18 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>1634</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5369,18 +5369,18 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
         <v>1634</v>
@@ -5457,18 +5457,18 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
         <v>1795</v>
@@ -5545,18 +5545,18 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>1634</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5633,18 +5633,18 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
         <v>1795</v>
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5791,11 +5791,11 @@
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5879,11 +5879,11 @@
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S64" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>1993</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>1953</v>
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6213,18 +6213,18 @@
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>1894</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6301,18 +6301,18 @@
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>1894</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6389,18 +6389,18 @@
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>1894</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6477,18 +6477,18 @@
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>1894</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6565,18 +6565,18 @@
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>1995</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6653,18 +6653,18 @@
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>1995</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6741,18 +6741,18 @@
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>1894</v>
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7163,18 +7163,18 @@
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>1750</v>
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7321,11 +7321,11 @@
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="S81" t="n">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
         <v>1945</v>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
         <v>1892</v>
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7823,18 +7823,18 @@
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
         <v>1605</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7911,18 +7911,18 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
         <v>1874</v>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7999,18 +7999,18 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>1874</v>
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10049,18 +10049,18 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113" t="n">
         <v>1689</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10137,18 +10137,18 @@
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
         <v>1914</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10225,18 +10225,18 @@
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U115" t="n">
         <v>1914</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10313,18 +10313,18 @@
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S116" t="n">
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U116" t="n">
         <v>1689</v>
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Norway', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Norway']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10555,11 +10555,11 @@
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10643,11 +10643,11 @@
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S120" t="n">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10885,18 +10885,18 @@
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123" t="n">
         <v>1825</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10973,18 +10973,18 @@
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U124" t="n">
         <v>1675</v>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11061,18 +11061,18 @@
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U125" t="n">
         <v>1675</v>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11149,18 +11149,18 @@
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U126" t="n">
         <v>1675</v>
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33379,7 +33379,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33543,7 +33543,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35767,7 +35767,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -38477,7 +38477,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -39681,7 +39681,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39761,7 +39761,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40113,7 +40113,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43663,7 +43663,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43743,7 +43743,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43919,7 +43919,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -767,18 +767,18 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>1873</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -855,18 +855,18 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>1623</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1031,18 +1031,18 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1623</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1119,18 +1119,18 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1873</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1207,18 +1207,18 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1623</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1295,18 +1295,18 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1623</v>
@@ -1537,18 +1537,18 @@
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1811</v>
@@ -1625,18 +1625,18 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>1811</v>
@@ -1713,18 +1713,18 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>1616</v>
@@ -1801,18 +1801,18 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>1811</v>
@@ -1889,18 +1889,18 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>1811</v>
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3667,18 +3667,18 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>1892</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>1892</v>
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3997,11 +3997,11 @@
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="S43" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4173,11 +4173,11 @@
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S44" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4261,11 +4261,11 @@
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4349,11 +4349,11 @@
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S46" t="n">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U47" t="n">
         <v>1807</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4525,18 +4525,18 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U48" t="n">
         <v>1807</v>
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5193,18 +5193,18 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>1634</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5281,18 +5281,18 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>1634</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5369,18 +5369,18 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>1634</v>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5457,18 +5457,18 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>1795</v>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5545,18 +5545,18 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
         <v>1634</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5633,18 +5633,18 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>1795</v>
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5791,11 +5791,11 @@
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5879,11 +5879,11 @@
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="S64" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U65" t="n">
         <v>1993</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
         <v>1953</v>
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6213,18 +6213,18 @@
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>1894</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6301,18 +6301,18 @@
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>1894</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6389,18 +6389,18 @@
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>1894</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6477,18 +6477,18 @@
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>1894</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6565,18 +6565,18 @@
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>1995</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6653,18 +6653,18 @@
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>1995</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6741,18 +6741,18 @@
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>1894</v>
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7163,18 +7163,18 @@
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>1750</v>
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7321,11 +7321,11 @@
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="S81" t="n">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U82" t="n">
         <v>1945</v>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U83" t="n">
         <v>1892</v>
@@ -7823,18 +7823,18 @@
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>1605</v>
@@ -7911,18 +7911,18 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>1874</v>
@@ -7999,18 +7999,18 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>1874</v>
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10049,18 +10049,18 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
         <v>1689</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10137,18 +10137,18 @@
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>1914</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10225,18 +10225,18 @@
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>1914</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10313,18 +10313,18 @@
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="S116" t="n">
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>1689</v>
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Norway']</t>
+          <t>['Mexico', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Ireland']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10555,11 +10555,11 @@
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10643,11 +10643,11 @@
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S120" t="n">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10885,18 +10885,18 @@
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>1825</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10973,18 +10973,18 @@
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
         <v>1675</v>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U125" t="n">
         <v>1675</v>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11149,18 +11149,18 @@
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="S126" t="n">
         <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
         <v>1675</v>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18983,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19063,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -33379,7 +33379,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33543,7 +33543,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -36017,7 +36017,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36097,7 +36097,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36273,7 +36273,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36449,7 +36449,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37711,7 +37711,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38059,7 +38059,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39681,7 +39681,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39761,7 +39761,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40113,7 +40113,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40601,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40769,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40945,7 +40945,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41121,7 +41121,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41195,7 +41195,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41275,7 +41275,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41359,7 +41359,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41447,7 +41447,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41535,7 +41535,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41623,7 +41623,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41711,7 +41711,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Norway', 'Italy']</t>
+          <t>['Norway', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19577,7 +19577,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19657,7 +19657,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19745,7 +19745,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -23145,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23225,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37297,7 +37297,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37377,7 +37377,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37461,7 +37461,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -38309,7 +38309,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38389,7 +38389,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38829,7 +38829,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38917,7 +38917,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40267,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40351,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40601,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40769,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43919,7 +43919,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44081,7 +44081,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44161,7 +44161,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44521,7 +44521,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44613,7 +44613,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Norway', 'Mexico', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10387,11 +10387,11 @@
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10467,11 +10467,11 @@
       </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S118" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Norway', 'Ireland', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14715,7 +14715,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14795,7 +14795,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14879,7 +14879,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18983,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19063,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21781,7 +21781,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21861,7 +21861,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35089,7 +35089,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35257,7 +35257,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35433,7 +35433,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -37711,7 +37711,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38059,7 +38059,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38309,7 +38309,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38389,7 +38389,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38829,7 +38829,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38917,7 +38917,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -40601,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40769,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43919,7 +43919,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44081,7 +44081,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44161,7 +44161,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44521,7 +44521,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44613,7 +44613,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Cameroon', 'Brazil']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Norway']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -16229,7 +16229,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16309,7 +16309,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18983,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19063,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -23145,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23225,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33379,7 +33379,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33543,7 +33543,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37297,7 +37297,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37377,7 +37377,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37461,7 +37461,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38991,7 +38991,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39071,7 +39071,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39155,7 +39155,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39681,7 +39681,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39761,7 +39761,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40113,7 +40113,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40267,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40351,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40601,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40769,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40945,7 +40945,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41121,7 +41121,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2901,18 +2901,18 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>1852</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1618</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1852</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1618</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
         <v>1618</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>1852</v>
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4771,18 +4771,18 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>1766</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>1766</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5035,18 +5035,18 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5707,11 +5707,11 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S62" t="n">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6129,11 +6129,11 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S67" t="n">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6221,10 +6221,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>1894</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>1894</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>1894</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>1894</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>1995</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>1995</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>1894</v>
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6815,11 +6815,11 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S75" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
         <v>1845</v>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6987,18 +6987,18 @@
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
         <v>1845</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U78" t="n">
         <v>1845</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U79" t="n">
         <v>1750</v>
@@ -7237,11 +7237,11 @@
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8773,18 +8773,18 @@
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
         <v>1868</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8861,18 +8861,18 @@
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
         <v>1868</v>
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9797,11 +9797,11 @@
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S111" t="n">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -9961,11 +9961,11 @@
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S112" t="n">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10049,11 +10049,11 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10145,10 +10145,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
         <v>1914</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115" t="n">
         <v>1914</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" t="n">
         <v>1689</v>
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10387,11 +10387,11 @@
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Norway']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10717,11 +10717,11 @@
       </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S121" t="n">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10797,11 +10797,11 @@
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10893,10 +10893,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123" t="n">
         <v>1825</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>1675</v>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U125" t="n">
         <v>1675</v>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U126" t="n">
         <v>1675</v>
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14715,7 +14715,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14795,7 +14795,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14879,7 +14879,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21781,7 +21781,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21861,7 +21861,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -33379,7 +33379,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33543,7 +33543,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -35089,7 +35089,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35257,7 +35257,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35433,7 +35433,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35767,7 +35767,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36017,7 +36017,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36097,7 +36097,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36273,7 +36273,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36449,7 +36449,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38991,7 +38991,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39071,7 +39071,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39155,7 +39155,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -41195,7 +41195,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41275,7 +41275,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41359,7 +41359,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43663,7 +43663,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43743,7 +43743,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4771,18 +4771,18 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>1766</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>1766</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4947,18 +4947,18 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>1966</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5035,18 +5035,18 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>1766</v>
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5707,11 +5707,11 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="S62" t="n">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6129,11 +6129,11 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S67" t="n">
@@ -6221,10 +6221,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>1894</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>1894</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>1894</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>1894</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>1995</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>1995</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>1894</v>
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6815,11 +6815,11 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S75" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>1845</v>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6987,18 +6987,18 @@
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>1845</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>1845</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>1750</v>
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7237,11 +7237,11 @@
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8773,18 +8773,18 @@
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>1868</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8861,18 +8861,18 @@
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>1868</v>
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9797,11 +9797,11 @@
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S111" t="n">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -9961,11 +9961,11 @@
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S112" t="n">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10049,11 +10049,11 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10145,10 +10145,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>1914</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>1914</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>1689</v>
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Mexico']</t>
+          <t>['Norway', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10387,11 +10387,11 @@
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Ireland']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10717,11 +10717,11 @@
       </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S121" t="n">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10797,11 +10797,11 @@
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10893,10 +10893,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>1825</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
         <v>1675</v>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U125" t="n">
         <v>1675</v>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
         <v>1675</v>
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21781,7 +21781,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21861,7 +21861,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23145,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23225,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -36699,7 +36699,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36783,7 +36783,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37135,7 +37135,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37297,7 +37297,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37377,7 +37377,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37461,7 +37461,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -38309,7 +38309,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38389,7 +38389,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38477,7 +38477,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38829,7 +38829,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38917,7 +38917,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38991,7 +38991,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39071,7 +39071,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39155,7 +39155,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39681,7 +39681,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39761,7 +39761,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40113,7 +40113,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40267,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40351,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -41195,7 +41195,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41275,7 +41275,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41359,7 +41359,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43919,7 +43919,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44081,7 +44081,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44161,7 +44161,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44521,7 +44521,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44613,7 +44613,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Norway', 'Mexico', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14715,7 +14715,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14795,7 +14795,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14879,7 +14879,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18983,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19063,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19577,7 +19577,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19657,7 +19657,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19745,7 +19745,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21781,7 +21781,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21861,7 +21861,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24847,7 +24847,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33379,7 +33379,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33543,7 +33543,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -34223,7 +34223,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35089,7 +35089,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35257,7 +35257,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35433,7 +35433,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38991,7 +38991,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39071,7 +39071,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39155,7 +39155,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40601,7 +40601,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40769,7 +40769,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40945,7 +40945,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41121,7 +41121,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11277,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16229,7 +16229,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16309,7 +16309,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17087,7 +17087,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20263,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20343,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -22463,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36017,7 +36017,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36097,7 +36097,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36273,7 +36273,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36449,7 +36449,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -37297,7 +37297,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37377,7 +37377,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37461,7 +37461,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40267,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40351,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -943,18 +943,18 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>1623</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>1623</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>1873</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>1623</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>1623</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -2623,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2703,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2729,11 +2729,11 @@
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -2787,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2813,11 +2813,11 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S35" t="n">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3495,11 +3495,11 @@
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S36" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3579,11 +3579,11 @@
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3675,10 +3675,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>1892</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3755,18 +3755,18 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>1892</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4437,18 +4437,18 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
         <v>1807</v>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4533,10 +4533,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
         <v>1807</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5681,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -6789,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Norway', 'Ireland', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11061,18 +11061,18 @@
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>1675</v>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11157,10 +11157,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>1675</v>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -11879,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12293,7 +12293,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12715,7 +12715,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -14117,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14439,7 +14439,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -14715,7 +14715,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -14795,7 +14795,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -14879,7 +14879,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -15723,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -15803,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -16229,7 +16229,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -16309,7 +16309,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16987,7 +16987,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -17949,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18007,7 +18007,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -18029,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18355,7 +18355,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -19125,7 +19125,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -19389,7 +19389,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -19477,7 +19477,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -20163,7 +20163,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -20251,7 +20251,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -20493,7 +20493,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -20593,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -20673,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -21011,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -21091,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21153,7 +21153,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21329,7 +21329,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21505,7 +21505,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21593,7 +21593,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21681,7 +21681,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -22187,7 +22187,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -22521,7 +22521,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -22869,7 +22869,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -23045,7 +23045,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -23145,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -23225,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -23977,7 +23977,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -24153,7 +24153,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -24241,7 +24241,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -24253,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24311,7 +24311,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -24333,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24659,7 +24659,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -24993,7 +24993,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -25081,7 +25081,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -25169,7 +25169,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -25261,7 +25261,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -25353,7 +25353,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -25621,7 +25621,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -25713,7 +25713,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26223,7 +26223,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -26323,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26381,7 +26381,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -26403,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -26487,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26725,7 +26725,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -26967,7 +26967,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -27055,7 +27055,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -27143,7 +27143,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -27231,7 +27231,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27301,7 +27301,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27385,7 +27385,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27473,7 +27473,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27561,7 +27561,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27741,7 +27741,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27829,7 +27829,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27917,7 +27917,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -27987,7 +27987,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -28155,7 +28155,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -28331,7 +28331,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -28343,7 +28343,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28401,7 +28401,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -28423,7 +28423,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28485,7 +28485,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -28573,7 +28573,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -28661,7 +28661,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -28749,7 +28749,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -28849,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28907,7 +28907,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -28995,7 +28995,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29171,7 +29171,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -29593,7 +29593,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -29677,7 +29677,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -29853,7 +29853,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -29941,7 +29941,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -30117,7 +30117,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -30129,7 +30129,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30187,7 +30187,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -30209,7 +30209,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -30293,7 +30293,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30355,7 +30355,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30443,7 +30443,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30531,7 +30531,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30619,7 +30619,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -30631,7 +30631,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30689,7 +30689,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -30711,7 +30711,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30773,7 +30773,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31049,7 +31049,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -31061,7 +31061,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31119,7 +31119,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31207,7 +31207,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31295,7 +31295,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31383,7 +31383,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31471,7 +31471,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31559,7 +31559,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31647,7 +31647,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31823,7 +31823,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -31911,7 +31911,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -31981,7 +31981,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32149,7 +32149,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32237,7 +32237,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32501,7 +32501,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32589,7 +32589,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -32601,7 +32601,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32659,7 +32659,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32747,7 +32747,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33015,7 +33015,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33103,7 +33103,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33191,7 +33191,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33279,7 +33279,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33367,7 +33367,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -33437,7 +33437,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -33521,7 +33521,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -33605,7 +33605,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -33693,7 +33693,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -33705,7 +33705,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33763,7 +33763,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -33785,7 +33785,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -33869,7 +33869,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34027,7 +34027,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34119,7 +34119,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34211,7 +34211,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -34281,7 +34281,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E398" t="n">
@@ -34373,7 +34373,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -34461,7 +34461,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -34637,7 +34637,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E402" t="n">
@@ -34725,7 +34725,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -34813,7 +34813,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -34989,7 +34989,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -35077,7 +35077,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E407" t="n">
@@ -35147,7 +35147,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -35231,7 +35231,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -35319,7 +35319,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E410" t="n">
@@ -35407,7 +35407,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E411" t="n">
@@ -35499,7 +35499,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E412" t="n">
@@ -35587,7 +35587,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -35599,7 +35599,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35657,7 +35657,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E414" t="n">
@@ -35679,7 +35679,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -35829,7 +35829,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35917,7 +35917,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36005,7 +36005,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E418" t="n">
@@ -36017,7 +36017,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36075,7 +36075,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E419" t="n">
@@ -36097,7 +36097,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36159,7 +36159,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36247,7 +36247,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -36273,7 +36273,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36335,7 +36335,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36423,7 +36423,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -36449,7 +36449,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36511,7 +36511,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -36537,7 +36537,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36599,7 +36599,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -36757,7 +36757,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -36933,7 +36933,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -37021,7 +37021,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -37109,7 +37109,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -37197,7 +37197,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E432" t="n">
@@ -37285,7 +37285,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -37297,7 +37297,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37355,7 +37355,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E434" t="n">
@@ -37377,7 +37377,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37439,7 +37439,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -37461,7 +37461,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37523,7 +37523,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E436" t="n">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37611,7 +37611,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37699,7 +37699,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E438" t="n">
@@ -37711,7 +37711,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37769,7 +37769,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37945,7 +37945,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E441" t="n">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38033,7 +38033,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -38059,7 +38059,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38121,7 +38121,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -38147,7 +38147,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -38309,7 +38309,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38367,7 +38367,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -38389,7 +38389,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38451,7 +38451,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -38477,7 +38477,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38539,7 +38539,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38627,7 +38627,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38715,7 +38715,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38803,7 +38803,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -38829,7 +38829,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38891,7 +38891,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -38917,7 +38917,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38979,7 +38979,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -39049,7 +39049,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -39133,7 +39133,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -39217,7 +39217,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -39309,7 +39309,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -39401,7 +39401,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -39581,7 +39581,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -39669,7 +39669,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -39739,7 +39739,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -39823,7 +39823,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -39999,7 +39999,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -40087,7 +40087,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -40175,7 +40175,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40245,7 +40245,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -40267,7 +40267,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40329,7 +40329,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -40351,7 +40351,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40413,7 +40413,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40501,7 +40501,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40589,7 +40589,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -40659,7 +40659,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -40743,7 +40743,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -40831,7 +40831,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40919,7 +40919,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -40945,7 +40945,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41007,7 +41007,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -41095,7 +41095,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -41121,7 +41121,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41183,7 +41183,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -41253,7 +41253,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -41337,7 +41337,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -41421,7 +41421,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -41447,7 +41447,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41509,7 +41509,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -41535,7 +41535,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41597,7 +41597,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -41623,7 +41623,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41685,7 +41685,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -41711,7 +41711,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -41785,7 +41785,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41843,7 +41843,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -41865,7 +41865,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41927,7 +41927,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42015,7 +42015,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42103,7 +42103,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42191,7 +42191,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -42305,7 +42305,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42367,7 +42367,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -42379,7 +42379,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42437,7 +42437,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -42459,7 +42459,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42525,7 +42525,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -42547,7 +42547,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42613,7 +42613,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -42639,7 +42639,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -42801,7 +42801,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42859,7 +42859,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42947,7 +42947,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -43035,7 +43035,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43123,7 +43123,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43211,7 +43211,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -43237,7 +43237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43299,7 +43299,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43387,7 +43387,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43563,7 +43563,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43651,7 +43651,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -43663,7 +43663,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43721,7 +43721,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -43743,7 +43743,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43805,7 +43805,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43893,7 +43893,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -43919,7 +43919,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -43981,7 +43981,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44069,7 +44069,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -44081,7 +44081,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44139,7 +44139,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -44161,7 +44161,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44227,7 +44227,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44315,7 +44315,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44407,7 +44407,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -44433,7 +44433,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44495,7 +44495,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -44521,7 +44521,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -44613,7 +44613,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -44775,7 +44775,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44833,7 +44833,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -44855,7 +44855,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44921,7 +44921,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45009,7 +45009,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -45097,7 +45097,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -45185,7 +45185,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -45273,7 +45273,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4649,7 +4649,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4741,7 +4741,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4865,7 +4865,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5327,7 +5327,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7059,7 +7059,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7909,7 +7909,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8503,7 +8503,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9481,7 +9481,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10541,7 +10541,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10633,7 +10633,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10757,7 +10757,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11255,7 +11255,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -12489,7 +12489,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13723,7 +13723,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13815,7 +13815,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13939,7 +13939,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14565,7 +14565,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Mexico']</t>
+          <t>['Norway', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -15027,7 +15027,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15119,7 +15119,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15745,7 +15745,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15837,7 +15837,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16093,7 +16093,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16221,7 +16221,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -18419,7 +18419,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18643,7 +18643,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -20759,7 +20759,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20851,7 +20851,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20975,7 +20975,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -22191,7 +22191,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22283,7 +22283,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22909,7 +22909,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -23001,7 +23001,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25465,7 +25465,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26105,7 +26105,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26233,7 +26233,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26361,7 +26361,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -27705,7 +27705,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27797,7 +27797,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27921,7 +27921,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28177,7 +28177,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28433,7 +28433,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28561,7 +28561,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28675,7 +28675,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28767,7 +28767,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -29023,7 +29023,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -30829,7 +30829,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30921,7 +30921,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -31049,7 +31049,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31305,7 +31305,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31561,7 +31561,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31803,7 +31803,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31895,7 +31895,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32023,7 +32023,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32151,7 +32151,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32279,7 +32279,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32535,7 +32535,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32663,7 +32663,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -33623,7 +33623,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33719,7 +33719,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33975,7 +33975,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -35191,7 +35191,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -35415,7 +35415,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -35543,7 +35543,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -35671,7 +35671,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -35799,7 +35799,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -35927,7 +35927,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -36183,7 +36183,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36311,7 +36311,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -36425,7 +36425,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36517,7 +36517,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -36641,7 +36641,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36769,7 +36769,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36897,7 +36897,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -37025,7 +37025,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -37153,7 +37153,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -39545,7 +39545,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -39637,7 +39637,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -39761,7 +39761,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -39889,7 +39889,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -40351,7 +40351,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -40479,7 +40479,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -40607,7 +40607,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -40735,7 +40735,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -40849,7 +40849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -40945,7 +40945,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -41073,7 +41073,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -41201,7 +41201,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41329,7 +41329,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -41457,7 +41457,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -41585,7 +41585,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -41713,7 +41713,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -41827,7 +41827,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -41919,7 +41919,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -42047,7 +42047,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -42175,7 +42175,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -42303,7 +42303,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -42431,7 +42431,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -42559,7 +42559,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -42673,7 +42673,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -42765,7 +42765,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -42889,7 +42889,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -43017,7 +43017,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -43145,7 +43145,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -43273,7 +43273,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -43387,7 +43387,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -43479,7 +43479,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -46181,7 +46181,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46405,7 +46405,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46661,7 +46661,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46789,7 +46789,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -46917,7 +46917,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -47045,7 +47045,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -47173,7 +47173,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -47287,7 +47287,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47379,7 +47379,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47503,7 +47503,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47745,7 +47745,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -47837,7 +47837,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -47961,7 +47961,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -48089,7 +48089,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -48217,7 +48217,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48345,7 +48345,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -48459,7 +48459,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48555,7 +48555,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48683,7 +48683,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48811,7 +48811,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48939,7 +48939,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -49067,7 +49067,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -49195,7 +49195,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49693,7 +49693,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49785,7 +49785,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49913,7 +49913,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -50041,7 +50041,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -50169,7 +50169,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50297,7 +50297,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -50411,7 +50411,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -50503,7 +50503,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50759,7 +50759,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50887,7 +50887,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -51001,7 +51001,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -51093,7 +51093,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51221,7 +51221,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51349,7 +51349,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51477,7 +51477,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51605,7 +51605,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51733,7 +51733,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51861,7 +51861,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -53411,7 +53411,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53635,7 +53635,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53763,7 +53763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53891,7 +53891,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -54019,7 +54019,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -54147,7 +54147,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -54481,7 +54481,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -56205,7 +56205,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -56297,7 +56297,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -56425,7 +56425,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -56553,7 +56553,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -56681,7 +56681,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -56809,7 +56809,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -57395,7 +57395,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -58355,7 +58355,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -58447,7 +58447,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -58571,7 +58571,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -61365,7 +61365,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -61863,7 +61863,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -61955,7 +61955,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -62083,7 +62083,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -62211,7 +62211,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -63427,7 +63427,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -63519,7 +63519,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -63647,7 +63647,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -63775,7 +63775,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -63903,7 +63903,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -64031,7 +64031,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2673,7 +2673,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2797,7 +2797,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5235,7 +5235,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5327,7 +5327,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -6337,7 +6337,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7059,7 +7059,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7909,7 +7909,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8503,7 +8503,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9481,7 +9481,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10075,7 +10075,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10541,7 +10541,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10633,7 +10633,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10757,7 +10757,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11255,7 +11255,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12489,7 +12489,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13723,7 +13723,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13815,7 +13815,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13939,7 +13939,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14657,7 +14657,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -16719,7 +16719,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17327,7 +17327,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -18419,7 +18419,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18643,7 +18643,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19909,7 +19909,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20005,7 +20005,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20133,7 +20133,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20759,7 +20759,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20851,7 +20851,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20975,7 +20975,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21473,7 +21473,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21565,7 +21565,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22191,7 +22191,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22283,7 +22283,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22909,7 +22909,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -23001,7 +23001,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23129,7 +23129,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23641,7 +23641,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24139,7 +24139,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24235,7 +24235,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25259,7 +25259,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25465,7 +25465,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26105,7 +26105,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26233,7 +26233,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26361,7 +26361,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26859,7 +26859,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26951,7 +26951,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -27079,7 +27079,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27591,7 +27591,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27705,7 +27705,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27797,7 +27797,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27921,7 +27921,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28177,7 +28177,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28433,7 +28433,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28561,7 +28561,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30075,7 +30075,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30459,7 +30459,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30587,7 +30587,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30715,7 +30715,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30829,7 +30829,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30921,7 +30921,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -31049,7 +31049,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31305,7 +31305,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31561,7 +31561,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -32777,7 +32777,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32869,7 +32869,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -33125,7 +33125,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33253,7 +33253,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33381,7 +33381,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33509,7 +33509,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -36425,7 +36425,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36517,7 +36517,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -36641,7 +36641,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36769,7 +36769,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36897,7 +36897,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -37025,7 +37025,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -37153,7 +37153,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -37267,7 +37267,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37359,7 +37359,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37483,7 +37483,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -37611,7 +37611,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37739,7 +37739,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37853,7 +37853,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -37945,7 +37945,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -38073,7 +38073,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -38201,7 +38201,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38329,7 +38329,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38457,7 +38457,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38571,7 +38571,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38663,7 +38663,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38919,7 +38919,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -39047,7 +39047,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -39303,7 +39303,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -39431,7 +39431,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -40017,7 +40017,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -43387,7 +43387,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -43479,7 +43479,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -43607,7 +43607,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -43735,7 +43735,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -43863,7 +43863,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -46169,7 +46169,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -46251,7 +46251,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -46417,7 +46417,7 @@
         <v>9</v>
       </c>
       <c r="M380" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N380" t="n">
         <v>3</v>
@@ -46459,7 +46459,7 @@
         <v>1</v>
       </c>
       <c r="Y380" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="Z380" t="n">
         <v>0</v>
@@ -46507,7 +46507,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46552,42 +46552,42 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="P381" t="n">
         <v>4</v>
       </c>
       <c r="Q381" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="T381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U381" t="n">
         <v>-1</v>
       </c>
       <c r="V381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W381" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="X381" t="n">
         <v>2</v>
       </c>
       <c r="Y381" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Z381" t="n">
         <v>1</v>
@@ -46597,14 +46597,14 @@
       </c>
       <c r="AB381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="AC381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE381" t="n">
         <v>1785</v>
@@ -46613,10 +46613,10 @@
         <v>1922</v>
       </c>
       <c r="AG381" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH381" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -46635,7 +46635,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -46661,7 +46661,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46680,31 +46680,31 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="P382" t="n">
         <v>4</v>
       </c>
       <c r="Q382" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R382" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S382" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="T382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U382" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W382" t="inlineStr">
         <is>
@@ -46725,14 +46725,14 @@
       </c>
       <c r="AB382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="AC382" t="n">
         <v>0</v>
       </c>
       <c r="AD382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE382" t="n">
         <v>1785</v>
@@ -46741,10 +46741,10 @@
         <v>1922</v>
       </c>
       <c r="AG382" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH382" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -46801,7 +46801,7 @@
         <v>9</v>
       </c>
       <c r="M383" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N383" t="n">
         <v>3</v>
@@ -46843,7 +46843,7 @@
         <v>1</v>
       </c>
       <c r="Y383" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="Z383" t="n">
         <v>0</v>
@@ -46857,7 +46857,7 @@
         </is>
       </c>
       <c r="AC383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD383" t="n">
         <v>2</v>
@@ -46891,7 +46891,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -47019,7 +47019,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -47287,7 +47287,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47379,7 +47379,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47503,7 +47503,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47631,7 +47631,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -47733,7 +47733,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -47745,7 +47745,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -47815,7 +47815,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -47837,7 +47837,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -47961,7 +47961,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -47984,13 +47984,13 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q393" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -48012,13 +48012,13 @@
         </is>
       </c>
       <c r="X393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y393" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="Z393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA393" t="n">
         <v>0</v>
@@ -48041,10 +48041,10 @@
         <v>1897</v>
       </c>
       <c r="AG393" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH393" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -48063,7 +48063,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -48089,7 +48089,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -48191,7 +48191,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -48217,7 +48217,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48319,7 +48319,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -48345,7 +48345,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -48459,7 +48459,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48555,7 +48555,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48683,7 +48683,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48811,7 +48811,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48939,7 +48939,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -49067,7 +49067,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -49195,7 +49195,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49693,7 +49693,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49785,7 +49785,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49913,7 +49913,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -50041,7 +50041,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -50169,7 +50169,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50297,7 +50297,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -51001,7 +51001,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -51093,7 +51093,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51221,7 +51221,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51349,7 +51349,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51477,7 +51477,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51605,7 +51605,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51733,7 +51733,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51861,7 +51861,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -53411,7 +53411,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53635,7 +53635,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53763,7 +53763,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53891,7 +53891,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -54019,7 +54019,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -54147,7 +54147,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -54261,7 +54261,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54353,7 +54353,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -54481,7 +54481,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -54609,7 +54609,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -54737,7 +54737,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -54865,7 +54865,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54993,7 +54993,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -55121,7 +55121,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -56923,7 +56923,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -57015,7 +57015,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -57139,7 +57139,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -57267,7 +57267,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -57509,7 +57509,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -57601,7 +57601,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -57729,7 +57729,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -57857,7 +57857,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -57985,7 +57985,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -58113,7 +58113,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -58241,7 +58241,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -59197,7 +59197,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -59289,7 +59289,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -60725,7 +60725,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -60981,7 +60981,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -61109,7 +61109,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -61237,7 +61237,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -61365,7 +61365,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -61493,7 +61493,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -61621,7 +61621,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -61749,7 +61749,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -61863,7 +61863,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -61955,7 +61955,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -62083,7 +62083,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -62211,7 +62211,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -62453,7 +62453,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -62545,7 +62545,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -62673,7 +62673,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -62801,7 +62801,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -63057,7 +63057,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -63185,7 +63185,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -63313,7 +63313,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -669,11 +669,11 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -789,24 +789,24 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF3" t="n">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
         <v>1892</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -917,24 +917,24 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF4" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>1942</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1045,24 +1045,24 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF5" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
         <v>1892</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1173,24 +1173,24 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF6" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
         <v>1942</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1301,24 +1301,24 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF7" t="n">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
         <v>1892</v>
@@ -1391,11 +1391,11 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>-1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>-1</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>-1</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>-1</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>-1</v>
@@ -2369,11 +2369,11 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="AC16" t="n">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>-2</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>-2</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>-3</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>-3</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>-3</v>
@@ -3091,11 +3091,11 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="AC22" t="n">
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>-1</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>-1</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>-1</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>-1</v>
@@ -4033,7 +4033,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>-1</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE32" t="n">
         <v>-3</v>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE33" t="n">
         <v>-3</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE34" t="n">
         <v>-3</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE35" t="n">
         <v>-3</v>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE36" t="n">
         <v>-3</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -5221,7 +5221,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5257,11 +5257,11 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC40" t="n">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5385,10 +5385,10 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>-1</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
         <v>-1</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>-1</v>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>-1</v>
@@ -6071,7 +6071,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6107,11 +6107,11 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC47" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>-3</v>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>-3</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>-3</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>-3</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>-2</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>-3</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>-3</v>
@@ -7049,7 +7049,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7461,24 +7461,24 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58" t="n">
         <v>-2</v>
       </c>
       <c r="AF58" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AG58" t="n">
         <v>1766</v>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7589,24 +7589,24 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="AC59" t="n">
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59" t="n">
         <v>-2</v>
       </c>
       <c r="AF59" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AG59" t="n">
         <v>1966</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7725,10 +7725,10 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE60" t="n">
         <v>-2</v>
@@ -7771,7 +7771,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7807,11 +7807,11 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="AC61" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8959,7 +8959,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8995,11 +8995,11 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="AC71" t="n">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9461,11 +9461,11 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="AC75" t="n">
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
         <v>-3</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
         <v>-1</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
         <v>-1</v>
@@ -11125,7 +11125,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Norway']</t>
+          <t>['Mexico', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11161,18 +11161,18 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11463,7 +11463,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Cameroon', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12515,24 +12515,24 @@
         <v>0</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE100" t="n">
         <v>-2</v>
       </c>
       <c r="AF100" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="AG100" t="n">
         <v>1868</v>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12643,24 +12643,24 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="AC101" t="n">
         <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE101" t="n">
         <v>-2</v>
       </c>
       <c r="AF101" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="AG101" t="n">
         <v>1868</v>
@@ -12697,7 +12697,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD103" t="n">
         <v>1</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13291,7 +13291,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD108" t="n">
         <v>1</v>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15457,7 +15457,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16435,7 +16435,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18775,7 +18775,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19127,7 +19127,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -20429,7 +20429,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -22595,7 +22595,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -25753,7 +25753,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31447,7 +31447,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35171,7 +35171,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -35765,7 +35765,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -37465,7 +37465,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37561,7 +37561,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37689,7 +37689,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -38397,7 +38397,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38493,7 +38493,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38621,7 +38621,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -38749,7 +38749,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -42903,7 +42903,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -42999,7 +42999,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -43127,7 +43127,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -43255,7 +43255,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -43963,7 +43963,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -44187,7 +44187,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -44315,7 +44315,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -46129,7 +46129,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46353,7 +46353,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46467,7 +46467,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -46947,7 +46947,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -48889,7 +48889,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48985,7 +48985,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51475,7 +51475,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -52759,7 +52759,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -53015,7 +53015,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53143,7 +53143,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53271,7 +53271,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53527,7 +53527,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53783,7 +53783,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH456"/>
+  <dimension ref="A1:AI456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,11 @@
           <t>elo_away</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>suspense</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -633,7 +638,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -686,6 +691,9 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -814,6 +822,9 @@
       <c r="AH3" t="n">
         <v>1995</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -857,7 +868,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -941,6 +952,9 @@
       </c>
       <c r="AH4" t="n">
         <v>1654</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -985,7 +999,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1069,6 +1083,9 @@
       </c>
       <c r="AH5" t="n">
         <v>1995</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1113,7 +1130,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1197,6 +1214,9 @@
       </c>
       <c r="AH6" t="n">
         <v>1654</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1241,7 +1261,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1325,6 +1345,9 @@
       </c>
       <c r="AH7" t="n">
         <v>1995</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1355,7 +1378,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1408,6 +1431,9 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1451,7 +1477,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1535,6 +1561,9 @@
       </c>
       <c r="AH9" t="n">
         <v>1842</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="10">
@@ -1579,7 +1608,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1663,6 +1692,9 @@
       </c>
       <c r="AH10" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1707,7 +1739,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1791,6 +1823,9 @@
       </c>
       <c r="AH11" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="12">
@@ -1835,7 +1870,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1919,6 +1954,9 @@
       </c>
       <c r="AH12" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1963,7 +2001,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2047,6 +2085,9 @@
       </c>
       <c r="AH13" t="n">
         <v>1842</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2091,7 +2132,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2175,6 +2216,9 @@
       </c>
       <c r="AH14" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2263,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2303,6 +2347,9 @@
       </c>
       <c r="AH15" t="n">
         <v>1884</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2333,7 +2380,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2386,6 +2433,9 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2429,7 +2479,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2513,6 +2563,9 @@
       </c>
       <c r="AH17" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2557,7 +2610,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2641,6 +2694,9 @@
       </c>
       <c r="AH18" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2685,7 +2741,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2769,6 +2825,9 @@
       </c>
       <c r="AH19" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="20">
@@ -2813,7 +2872,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2897,6 +2956,9 @@
       </c>
       <c r="AH20" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="21">
@@ -2941,7 +3003,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3025,6 +3087,9 @@
       </c>
       <c r="AH21" t="n">
         <v>1824</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="22">
@@ -3055,7 +3120,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3108,6 +3173,9 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3151,7 +3219,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3235,6 +3303,9 @@
       </c>
       <c r="AH23" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -3279,7 +3350,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3363,6 +3434,9 @@
       </c>
       <c r="AH24" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="25">
@@ -3407,7 +3481,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3491,6 +3565,9 @@
       </c>
       <c r="AH25" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="26">
@@ -3535,7 +3612,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3619,6 +3696,9 @@
       </c>
       <c r="AH26" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3663,7 +3743,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3747,6 +3827,9 @@
       </c>
       <c r="AH27" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="28">
@@ -3791,7 +3874,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3875,6 +3958,9 @@
       </c>
       <c r="AH28" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3919,7 +4005,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4003,6 +4089,9 @@
       </c>
       <c r="AH29" t="n">
         <v>1647</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="30">
@@ -4033,7 +4122,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4086,6 +4175,9 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4129,7 +4221,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4213,6 +4305,9 @@
       </c>
       <c r="AH31" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4257,7 +4352,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4341,6 +4436,9 @@
       </c>
       <c r="AH32" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="33">
@@ -4385,7 +4483,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4469,6 +4567,9 @@
       </c>
       <c r="AH33" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.4228692071356928</v>
       </c>
     </row>
     <row r="34">
@@ -4513,7 +4614,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4597,6 +4698,9 @@
       </c>
       <c r="AH34" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.2820635588169152</v>
       </c>
     </row>
     <row r="35">
@@ -4641,7 +4745,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4725,6 +4829,9 @@
       </c>
       <c r="AH35" t="n">
         <v>1901</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.2497809249136731</v>
       </c>
     </row>
     <row r="36">
@@ -4769,7 +4876,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4853,6 +4960,9 @@
       </c>
       <c r="AH36" t="n">
         <v>1914</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.2301956231786192</v>
       </c>
     </row>
     <row r="37">
@@ -4936,6 +5046,9 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5064,6 +5177,9 @@
       <c r="AH38" t="n">
         <v>1940</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.520821300824607</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5191,6 +5307,9 @@
       </c>
       <c r="AH39" t="n">
         <v>1940</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.520821300824607</v>
       </c>
     </row>
     <row r="40">
@@ -5221,7 +5340,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5274,6 +5393,9 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5317,7 +5439,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5401,6 +5523,9 @@
       </c>
       <c r="AH41" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="42">
@@ -5445,7 +5570,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5529,6 +5654,9 @@
       </c>
       <c r="AH42" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="43">
@@ -5573,7 +5701,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5657,6 +5785,9 @@
       </c>
       <c r="AH43" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="44">
@@ -5701,7 +5832,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5785,6 +5916,9 @@
       </c>
       <c r="AH44" t="n">
         <v>1896</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="45">
@@ -5829,7 +5963,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5913,6 +6047,9 @@
       </c>
       <c r="AH45" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
@@ -5957,7 +6094,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6041,6 +6178,9 @@
       </c>
       <c r="AH46" t="n">
         <v>1896</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -6071,7 +6211,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6124,6 +6264,9 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6167,7 +6310,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6251,6 +6394,9 @@
       </c>
       <c r="AH48" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.2183151345549592</v>
       </c>
     </row>
     <row r="49">
@@ -6295,7 +6441,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6379,6 +6525,9 @@
       </c>
       <c r="AH49" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.2111088520420972</v>
       </c>
     </row>
     <row r="50">
@@ -6423,7 +6572,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6507,6 +6656,9 @@
       </c>
       <c r="AH50" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.2183151345549592</v>
       </c>
     </row>
     <row r="51">
@@ -6551,7 +6703,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6635,6 +6787,9 @@
       </c>
       <c r="AH51" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.2111088520420972</v>
       </c>
     </row>
     <row r="52">
@@ -6679,7 +6834,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6763,6 +6918,9 @@
       </c>
       <c r="AH52" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.2183133788382396</v>
       </c>
     </row>
     <row r="53">
@@ -6807,7 +6965,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6891,6 +7049,9 @@
       </c>
       <c r="AH53" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.2111088520420972</v>
       </c>
     </row>
     <row r="54">
@@ -6935,7 +7096,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7019,6 +7180,9 @@
       </c>
       <c r="AH54" t="n">
         <v>1460</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.2067379055999627</v>
       </c>
     </row>
     <row r="55">
@@ -7049,7 +7213,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7102,6 +7266,9 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7145,7 +7312,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7229,6 +7396,9 @@
       </c>
       <c r="AH56" t="n">
         <v>1855</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.2497809249136731</v>
       </c>
     </row>
     <row r="57">
@@ -7273,7 +7443,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7357,6 +7527,9 @@
       </c>
       <c r="AH57" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="58">
@@ -7401,7 +7574,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7485,6 +7658,9 @@
       </c>
       <c r="AH58" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.2301894961581066</v>
       </c>
     </row>
     <row r="59">
@@ -7529,7 +7705,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7613,6 +7789,9 @@
       </c>
       <c r="AH59" t="n">
         <v>1855</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.2301894961581066</v>
       </c>
     </row>
     <row r="60">
@@ -7657,7 +7836,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7741,6 +7920,9 @@
       </c>
       <c r="AH60" t="n">
         <v>1586</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="61">
@@ -7771,7 +7953,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7824,6 +8006,9 @@
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7867,7 +8052,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7951,6 +8136,9 @@
       </c>
       <c r="AH62" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -7995,7 +8183,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8079,6 +8267,9 @@
       </c>
       <c r="AH63" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -8123,7 +8314,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8207,6 +8398,9 @@
       </c>
       <c r="AH64" t="n">
         <v>1740</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -8251,7 +8445,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8335,6 +8529,9 @@
       </c>
       <c r="AH65" t="n">
         <v>1612</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="66">
@@ -8418,6 +8615,9 @@
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8546,6 +8746,9 @@
       <c r="AH67" t="n">
         <v>1928</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.08198899937540108</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8674,6 +8877,9 @@
       <c r="AH68" t="n">
         <v>1928</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.1350006500813721</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -8802,6 +9008,9 @@
       <c r="AH69" t="n">
         <v>1928</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.08198899937540108</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8929,6 +9138,9 @@
       </c>
       <c r="AH70" t="n">
         <v>1890</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.3352604727832175</v>
       </c>
     </row>
     <row r="71">
@@ -9012,6 +9224,9 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9055,7 +9270,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9139,6 +9354,9 @@
       </c>
       <c r="AH72" t="n">
         <v>2033</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -9183,7 +9401,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9267,6 +9485,9 @@
       </c>
       <c r="AH73" t="n">
         <v>1642</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="74">
@@ -9395,6 +9616,9 @@
       </c>
       <c r="AH74" t="n">
         <v>2033</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
@@ -9425,7 +9649,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9478,6 +9702,9 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9521,7 +9748,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9605,6 +9832,9 @@
       </c>
       <c r="AH76" t="n">
         <v>1835</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="77">
@@ -9649,7 +9879,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9733,6 +9963,9 @@
       </c>
       <c r="AH77" t="n">
         <v>1943</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="78">
@@ -9777,7 +10010,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9861,6 +10094,9 @@
       </c>
       <c r="AH78" t="n">
         <v>1943</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="79">
@@ -9891,7 +10127,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9944,6 +10180,9 @@
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9987,7 +10226,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10071,6 +10310,9 @@
       </c>
       <c r="AH80" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="81">
@@ -10115,7 +10357,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10199,6 +10441,9 @@
       </c>
       <c r="AH81" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="82">
@@ -10243,7 +10488,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10327,6 +10572,9 @@
       </c>
       <c r="AH82" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="83">
@@ -10371,7 +10619,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10455,6 +10703,9 @@
       </c>
       <c r="AH83" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.1352604727832175</v>
       </c>
     </row>
     <row r="84">
@@ -10499,7 +10750,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10583,6 +10834,9 @@
       </c>
       <c r="AH84" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="85">
@@ -10627,7 +10881,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10711,6 +10965,9 @@
       </c>
       <c r="AH85" t="n">
         <v>1666</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="86">
@@ -10755,7 +11012,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10839,6 +11096,9 @@
       </c>
       <c r="AH86" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="87">
@@ -10883,7 +11143,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10967,6 +11227,9 @@
       </c>
       <c r="AH87" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="88">
@@ -11011,7 +11274,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11095,6 +11358,9 @@
       </c>
       <c r="AH88" t="n">
         <v>1893</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="89">
@@ -11125,7 +11391,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Norway', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11178,6 +11444,9 @@
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11306,6 +11575,9 @@
       <c r="AH90" t="n">
         <v>1854</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -11349,7 +11621,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11433,6 +11705,9 @@
       </c>
       <c r="AH91" t="n">
         <v>1854</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
@@ -11463,7 +11738,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11516,6 +11791,9 @@
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11559,7 +11837,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11643,6 +11921,9 @@
       </c>
       <c r="AH93" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0.08198899937540108</v>
       </c>
     </row>
     <row r="94">
@@ -11687,7 +11968,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11771,6 +12052,9 @@
       </c>
       <c r="AH94" t="n">
         <v>1907</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0.03019562317861916</v>
       </c>
     </row>
     <row r="95">
@@ -11815,7 +12099,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11899,6 +12183,9 @@
       </c>
       <c r="AH95" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0.04978092491367309</v>
       </c>
     </row>
     <row r="96">
@@ -11943,7 +12230,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12027,6 +12314,9 @@
       </c>
       <c r="AH96" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="97">
@@ -12071,7 +12361,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12155,6 +12445,9 @@
       </c>
       <c r="AH97" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0.04978092491367309</v>
       </c>
     </row>
     <row r="98">
@@ -12199,7 +12492,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12283,6 +12576,9 @@
       </c>
       <c r="AH98" t="n">
         <v>1907</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="99">
@@ -12327,7 +12623,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12411,6 +12707,9 @@
       </c>
       <c r="AH99" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="100">
@@ -12455,7 +12754,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12539,6 +12838,9 @@
       </c>
       <c r="AH100" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0.2301894961581066</v>
       </c>
     </row>
     <row r="101">
@@ -12583,7 +12885,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12667,6 +12969,9 @@
       </c>
       <c r="AH101" t="n">
         <v>1690</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.2111083489807739</v>
       </c>
     </row>
     <row r="102">
@@ -12697,7 +13002,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12750,6 +13055,9 @@
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -12793,7 +13101,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12877,6 +13185,9 @@
       </c>
       <c r="AH103" t="n">
         <v>1639</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="104">
@@ -12921,7 +13232,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13005,6 +13316,9 @@
       </c>
       <c r="AH104" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="105">
@@ -13049,7 +13363,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13133,6 +13447,9 @@
       </c>
       <c r="AH105" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="106">
@@ -13177,7 +13494,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13261,6 +13578,9 @@
       </c>
       <c r="AH106" t="n">
         <v>1992</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="107">
@@ -13291,7 +13611,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13344,6 +13664,9 @@
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13387,7 +13710,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13471,6 +13794,9 @@
       </c>
       <c r="AH108" t="n">
         <v>1742</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.006737937761648469</v>
       </c>
     </row>
     <row r="109">
@@ -13515,7 +13841,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13599,6 +13925,9 @@
       </c>
       <c r="AH109" t="n">
         <v>1771</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0.004086771306698928</v>
       </c>
     </row>
     <row r="110">
@@ -13728,6 +14057,9 @@
       <c r="AH110" t="n">
         <v>1771</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0.002478752138915013</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -13855,6 +14187,9 @@
       </c>
       <c r="AH111" t="n">
         <v>1742</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.001503439182161631</v>
       </c>
     </row>
     <row r="112">
@@ -13938,6 +14273,9 @@
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -14066,6 +14404,9 @@
       <c r="AH113" t="n">
         <v>1598</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -14194,6 +14535,9 @@
       <c r="AH114" t="n">
         <v>1717</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -14322,6 +14666,9 @@
       <c r="AH115" t="n">
         <v>1598</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14450,6 +14797,9 @@
       <c r="AH116" t="n">
         <v>1717</v>
       </c>
+      <c r="AI116" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -14577,6 +14927,9 @@
       </c>
       <c r="AH117" t="n">
         <v>1717</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="118">
@@ -14660,6 +15013,9 @@
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -14703,7 +15059,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14787,6 +15143,9 @@
       </c>
       <c r="AH119" t="n">
         <v>1732</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
@@ -14831,7 +15190,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -14915,6 +15274,9 @@
       </c>
       <c r="AH120" t="n">
         <v>1732</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="121">
@@ -14959,7 +15321,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15043,6 +15405,9 @@
       </c>
       <c r="AH121" t="n">
         <v>1904</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="122">
@@ -15087,7 +15452,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15171,6 +15536,9 @@
       </c>
       <c r="AH122" t="n">
         <v>1904</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="123">
@@ -15215,7 +15583,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15299,6 +15667,9 @@
       </c>
       <c r="AH123" t="n">
         <v>1732</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="124">
@@ -15427,6 +15798,9 @@
       </c>
       <c r="AH124" t="n">
         <v>1904</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="125">
@@ -15510,6 +15884,9 @@
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -15638,6 +16015,9 @@
       <c r="AH126" t="n">
         <v>1882</v>
       </c>
+      <c r="AI126" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -15766,6 +16146,9 @@
       <c r="AH127" t="n">
         <v>1649</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -15894,6 +16277,9 @@
       <c r="AH128" t="n">
         <v>1882</v>
       </c>
+      <c r="AI128" t="n">
+        <v>0.2180032159206161</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16022,6 +16408,9 @@
       <c r="AH129" t="n">
         <v>1649</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0.1352604727832175</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16150,6 +16539,9 @@
       <c r="AH130" t="n">
         <v>1882</v>
       </c>
+      <c r="AI130" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16278,6 +16670,9 @@
       <c r="AH131" t="n">
         <v>1649</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0.133848362243797</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16405,6 +16800,9 @@
       </c>
       <c r="AH132" t="n">
         <v>1649</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="133">
@@ -16488,6 +16886,9 @@
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -16616,6 +17017,9 @@
       <c r="AH134" t="n">
         <v>1740</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -16744,6 +17148,9 @@
       <c r="AH135" t="n">
         <v>1805</v>
       </c>
+      <c r="AI135" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -16872,6 +17279,9 @@
       <c r="AH136" t="n">
         <v>1740</v>
       </c>
+      <c r="AI136" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -17000,6 +17410,9 @@
       <c r="AH137" t="n">
         <v>1805</v>
       </c>
+      <c r="AI137" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -17128,6 +17541,9 @@
       <c r="AH138" t="n">
         <v>1805</v>
       </c>
+      <c r="AI138" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -17256,6 +17672,9 @@
       <c r="AH139" t="n">
         <v>1740</v>
       </c>
+      <c r="AI139" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17384,6 +17803,9 @@
       <c r="AH140" t="n">
         <v>1805</v>
       </c>
+      <c r="AI140" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -17512,6 +17934,9 @@
       <c r="AH141" t="n">
         <v>1805</v>
       </c>
+      <c r="AI141" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -17640,6 +18065,9 @@
       <c r="AH142" t="n">
         <v>1740</v>
       </c>
+      <c r="AI142" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -17768,6 +18196,9 @@
       <c r="AH143" t="n">
         <v>1805</v>
       </c>
+      <c r="AI143" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -17895,6 +18326,9 @@
       </c>
       <c r="AH144" t="n">
         <v>1805</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
@@ -17925,7 +18359,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -17978,6 +18412,9 @@
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -18021,7 +18458,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18105,6 +18542,9 @@
       </c>
       <c r="AH146" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="147">
@@ -18149,7 +18589,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18233,6 +18673,9 @@
       </c>
       <c r="AH147" t="n">
         <v>1767</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="148">
@@ -18277,7 +18720,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18361,6 +18804,9 @@
       </c>
       <c r="AH148" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="149">
@@ -18405,7 +18851,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18489,6 +18935,9 @@
       </c>
       <c r="AH149" t="n">
         <v>1767</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="150">
@@ -18533,7 +18982,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18617,6 +19066,9 @@
       </c>
       <c r="AH150" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="151">
@@ -18661,7 +19113,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18745,6 +19197,9 @@
       </c>
       <c r="AH151" t="n">
         <v>1845</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="152">
@@ -18775,7 +19230,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18828,6 +19283,9 @@
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -18871,7 +19329,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18955,6 +19413,9 @@
       </c>
       <c r="AH153" t="n">
         <v>1970</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="154">
@@ -18999,7 +19460,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19083,6 +19544,9 @@
       </c>
       <c r="AH154" t="n">
         <v>1648</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="155">
@@ -19127,7 +19591,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19211,6 +19675,9 @@
       </c>
       <c r="AH155" t="n">
         <v>1648</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0.1353185835967217</v>
       </c>
     </row>
     <row r="156">
@@ -19294,6 +19761,9 @@
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -19422,6 +19892,9 @@
       <c r="AH157" t="n">
         <v>1873</v>
       </c>
+      <c r="AI157" t="n">
+        <v>0.1353315566860566</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -19550,6 +20023,9 @@
       <c r="AH158" t="n">
         <v>1641</v>
       </c>
+      <c r="AI158" t="n">
+        <v>0.01831513455495917</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -19678,6 +20154,9 @@
       <c r="AH159" t="n">
         <v>1641</v>
       </c>
+      <c r="AI159" t="n">
+        <v>0.03019562317861916</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -19805,6 +20284,9 @@
       </c>
       <c r="AH160" t="n">
         <v>1641</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="161">
@@ -19888,6 +20370,9 @@
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -20016,6 +20501,9 @@
       <c r="AH162" t="n">
         <v>1639</v>
       </c>
+      <c r="AI162" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -20144,6 +20632,9 @@
       <c r="AH163" t="n">
         <v>1973</v>
       </c>
+      <c r="AI163" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -20272,6 +20763,9 @@
       <c r="AH164" t="n">
         <v>1973</v>
       </c>
+      <c r="AI164" t="n">
+        <v>0.08206355881691525</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -20399,6 +20893,9 @@
       </c>
       <c r="AH165" t="n">
         <v>1639</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="166">
@@ -20429,7 +20926,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20482,6 +20979,9 @@
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -20610,6 +21110,9 @@
       <c r="AH167" t="n">
         <v>1811</v>
       </c>
+      <c r="AI167" t="n">
+        <v>0.9975273768433653</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -20653,7 +21156,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20737,6 +21240,9 @@
       </c>
       <c r="AH168" t="n">
         <v>2094</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="169">
@@ -20866,6 +21372,9 @@
       <c r="AH169" t="n">
         <v>1811</v>
       </c>
+      <c r="AI169" t="n">
+        <v>0.1353344517130027</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -20994,6 +21503,9 @@
       <c r="AH170" t="n">
         <v>1811</v>
       </c>
+      <c r="AI170" t="n">
+        <v>0.1353344517130027</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -21122,6 +21634,9 @@
       <c r="AH171" t="n">
         <v>1811</v>
       </c>
+      <c r="AI171" t="n">
+        <v>0.1353344517130027</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -21250,6 +21765,9 @@
       <c r="AH172" t="n">
         <v>2094</v>
       </c>
+      <c r="AI172" t="n">
+        <v>0.04978700011192375</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -21293,7 +21811,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21377,6 +21895,9 @@
       </c>
       <c r="AH173" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="174">
@@ -21421,7 +21942,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21505,6 +22026,9 @@
       </c>
       <c r="AH174" t="n">
         <v>1811</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="175">
@@ -21588,6 +22112,9 @@
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -21716,6 +22243,9 @@
       <c r="AH176" t="n">
         <v>1873</v>
       </c>
+      <c r="AI176" t="n">
+        <v>0.03003974928523742</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -21844,6 +22374,9 @@
       <c r="AH177" t="n">
         <v>1870</v>
       </c>
+      <c r="AI177" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -21972,6 +22505,9 @@
       <c r="AH178" t="n">
         <v>1873</v>
       </c>
+      <c r="AI178" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -22100,6 +22636,9 @@
       <c r="AH179" t="n">
         <v>1870</v>
       </c>
+      <c r="AI179" t="n">
+        <v>0.2180032159206161</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -22227,6 +22766,9 @@
       </c>
       <c r="AH180" t="n">
         <v>1873</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="181">
@@ -22257,7 +22799,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22310,6 +22852,9 @@
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -22353,7 +22898,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22437,6 +22982,9 @@
       </c>
       <c r="AH182" t="n">
         <v>2017</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="183">
@@ -22481,7 +23029,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22565,6 +23113,9 @@
       </c>
       <c r="AH183" t="n">
         <v>2017</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="184">
@@ -22648,6 +23199,9 @@
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -22776,6 +23330,9 @@
       <c r="AH185" t="n">
         <v>1964</v>
       </c>
+      <c r="AI185" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -22904,6 +23461,9 @@
       <c r="AH186" t="n">
         <v>1964</v>
       </c>
+      <c r="AI186" t="n">
+        <v>0.2228692071356927</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -23032,6 +23592,9 @@
       <c r="AH187" t="n">
         <v>1964</v>
       </c>
+      <c r="AI187" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -23160,6 +23723,9 @@
       <c r="AH188" t="n">
         <v>1730</v>
       </c>
+      <c r="AI188" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -23288,6 +23854,9 @@
       <c r="AH189" t="n">
         <v>1964</v>
       </c>
+      <c r="AI189" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -23416,6 +23985,9 @@
       <c r="AH190" t="n">
         <v>1964</v>
       </c>
+      <c r="AI190" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -23544,6 +24116,9 @@
       <c r="AH191" t="n">
         <v>1730</v>
       </c>
+      <c r="AI191" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -23672,6 +24247,9 @@
       <c r="AH192" t="n">
         <v>1730</v>
       </c>
+      <c r="AI192" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -23799,6 +24377,9 @@
       </c>
       <c r="AH193" t="n">
         <v>1730</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
@@ -23882,6 +24463,9 @@
       <c r="AF194" t="inlineStr"/>
       <c r="AG194" t="inlineStr"/>
       <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -24010,6 +24594,9 @@
       <c r="AH195" t="n">
         <v>1701</v>
       </c>
+      <c r="AI195" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -24138,6 +24725,9 @@
       <c r="AH196" t="n">
         <v>1701</v>
       </c>
+      <c r="AI196" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -24181,7 +24771,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24265,6 +24855,9 @@
       </c>
       <c r="AH197" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -24309,7 +24902,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24393,6 +24986,9 @@
       </c>
       <c r="AH198" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="199">
@@ -24437,7 +25033,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24521,6 +25117,9 @@
       </c>
       <c r="AH199" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="200">
@@ -24565,7 +25164,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24649,6 +25248,9 @@
       </c>
       <c r="AH200" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="201">
@@ -24778,6 +25380,9 @@
       <c r="AH201" t="n">
         <v>1867</v>
       </c>
+      <c r="AI201" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -24821,7 +25426,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24905,6 +25510,9 @@
       </c>
       <c r="AH202" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="203">
@@ -24949,7 +25557,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25033,6 +25641,9 @@
       </c>
       <c r="AH203" t="n">
         <v>1867</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="204">
@@ -25077,7 +25688,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25161,6 +25772,9 @@
       </c>
       <c r="AH204" t="n">
         <v>1701</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="205">
@@ -25191,7 +25805,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25244,6 +25858,9 @@
       <c r="AF205" t="inlineStr"/>
       <c r="AG205" t="inlineStr"/>
       <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -25287,7 +25904,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25371,6 +25988,9 @@
       </c>
       <c r="AH206" t="n">
         <v>2009</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="207">
@@ -25415,7 +26035,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25499,6 +26119,9 @@
       </c>
       <c r="AH207" t="n">
         <v>1882</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="208">
@@ -25543,7 +26166,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25627,6 +26250,9 @@
       </c>
       <c r="AH208" t="n">
         <v>2009</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="209">
@@ -25657,7 +26283,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25710,6 +26336,9 @@
       <c r="AF209" t="inlineStr"/>
       <c r="AG209" t="inlineStr"/>
       <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -25753,7 +26382,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25837,6 +26466,9 @@
       </c>
       <c r="AH210" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="211">
@@ -25881,7 +26513,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25965,6 +26597,9 @@
       </c>
       <c r="AH211" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="212">
@@ -26009,7 +26644,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26093,6 +26728,9 @@
       </c>
       <c r="AH212" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="213">
@@ -26137,7 +26775,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26221,6 +26859,9 @@
       </c>
       <c r="AH213" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="214">
@@ -26265,7 +26906,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26349,6 +26990,9 @@
       </c>
       <c r="AH214" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="215">
@@ -26393,7 +27037,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26477,6 +27121,9 @@
       </c>
       <c r="AH215" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="216">
@@ -26521,7 +27168,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26605,6 +27252,9 @@
       </c>
       <c r="AH216" t="n">
         <v>1802</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="217">
@@ -26635,7 +27285,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26688,6 +27338,9 @@
       <c r="AF217" t="inlineStr"/>
       <c r="AG217" t="inlineStr"/>
       <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -26731,7 +27384,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26815,6 +27468,9 @@
       </c>
       <c r="AH218" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>0.09534946489910949</v>
       </c>
     </row>
     <row r="219">
@@ -26859,7 +27515,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26943,6 +27599,9 @@
       </c>
       <c r="AH219" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>0.04742587317756678</v>
       </c>
     </row>
     <row r="220">
@@ -26987,7 +27646,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27071,6 +27730,9 @@
       </c>
       <c r="AH220" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>0.02297736991002561</v>
       </c>
     </row>
     <row r="221">
@@ -27115,7 +27777,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27199,6 +27861,9 @@
       </c>
       <c r="AH221" t="n">
         <v>1736</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>0.1824255238063563</v>
       </c>
     </row>
     <row r="222">
@@ -27243,7 +27908,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27327,6 +27992,9 @@
       </c>
       <c r="AH222" t="n">
         <v>1808</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>0.320821300824607</v>
       </c>
     </row>
     <row r="223">
@@ -27357,7 +28025,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27410,6 +28078,9 @@
       <c r="AF223" t="inlineStr"/>
       <c r="AG223" t="inlineStr"/>
       <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -27538,6 +28209,9 @@
       <c r="AH224" t="n">
         <v>1898</v>
       </c>
+      <c r="AI224" t="n">
+        <v>0.03019729578009067</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -27666,6 +28340,9 @@
       <c r="AH225" t="n">
         <v>1822</v>
       </c>
+      <c r="AI225" t="n">
+        <v>0.01831513455495917</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -27794,6 +28471,9 @@
       <c r="AH226" t="n">
         <v>1822</v>
       </c>
+      <c r="AI226" t="n">
+        <v>0.03019729578009067</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -27922,6 +28602,9 @@
       <c r="AH227" t="n">
         <v>1898</v>
       </c>
+      <c r="AI227" t="n">
+        <v>0.04978676246742296</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -28050,6 +28733,9 @@
       <c r="AH228" t="n">
         <v>1898</v>
       </c>
+      <c r="AI228" t="n">
+        <v>0.08208393093377653</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -28177,6 +28863,9 @@
       </c>
       <c r="AH229" t="n">
         <v>1822</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>0.1352604727832175</v>
       </c>
     </row>
     <row r="230">
@@ -28207,7 +28896,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28260,6 +28949,9 @@
       <c r="AF230" t="inlineStr"/>
       <c r="AG230" t="inlineStr"/>
       <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -28303,7 +28995,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28387,6 +29079,9 @@
       </c>
       <c r="AH231" t="n">
         <v>1567</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="232">
@@ -28431,7 +29126,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28515,6 +29210,9 @@
       </c>
       <c r="AH232" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="233">
@@ -28559,7 +29257,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28643,6 +29341,9 @@
       </c>
       <c r="AH233" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="234">
@@ -28687,7 +29388,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28771,6 +29472,9 @@
       </c>
       <c r="AH234" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="235">
@@ -28815,7 +29519,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28899,6 +29603,9 @@
       </c>
       <c r="AH235" t="n">
         <v>1567</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="236">
@@ -28943,7 +29650,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29027,6 +29734,9 @@
       </c>
       <c r="AH236" t="n">
         <v>1973</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="237">
@@ -29057,7 +29767,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29110,6 +29820,9 @@
       <c r="AF237" t="inlineStr"/>
       <c r="AG237" t="inlineStr"/>
       <c r="AH237" t="inlineStr"/>
+      <c r="AI237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -29153,7 +29866,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29237,6 +29950,9 @@
       </c>
       <c r="AH238" t="n">
         <v>1837</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="239">
@@ -29281,7 +29997,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29365,6 +30081,9 @@
       </c>
       <c r="AH239" t="n">
         <v>1837</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="240">
@@ -29409,7 +30128,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29493,6 +30212,9 @@
       </c>
       <c r="AH240" t="n">
         <v>1837</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="241">
@@ -29537,7 +30259,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29621,6 +30343,9 @@
       </c>
       <c r="AH241" t="n">
         <v>1565</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="242">
@@ -29665,7 +30390,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29749,6 +30474,9 @@
       </c>
       <c r="AH242" t="n">
         <v>1565</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="243">
@@ -29779,7 +30507,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29832,6 +30560,9 @@
       <c r="AF243" t="inlineStr"/>
       <c r="AG243" t="inlineStr"/>
       <c r="AH243" t="inlineStr"/>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -29875,7 +30606,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -29959,6 +30690,9 @@
       </c>
       <c r="AH244" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>0.01831552635425089</v>
       </c>
     </row>
     <row r="245">
@@ -30003,7 +30737,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30087,6 +30821,9 @@
       </c>
       <c r="AH245" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>0.03019699064107297</v>
       </c>
     </row>
     <row r="246">
@@ -30131,7 +30868,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30215,6 +30952,9 @@
       </c>
       <c r="AH246" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>0.01831552635425089</v>
       </c>
     </row>
     <row r="247">
@@ -30259,7 +30999,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30343,6 +31083,9 @@
       </c>
       <c r="AH247" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>0.1353344517130027</v>
       </c>
     </row>
     <row r="248">
@@ -30387,7 +31130,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30471,6 +31214,9 @@
       </c>
       <c r="AH248" t="n">
         <v>1799</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="249">
@@ -30554,6 +31300,9 @@
       <c r="AF249" t="inlineStr"/>
       <c r="AG249" t="inlineStr"/>
       <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -30682,6 +31431,9 @@
       <c r="AH250" t="n">
         <v>1836</v>
       </c>
+      <c r="AI250" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -30810,6 +31562,9 @@
       <c r="AH251" t="n">
         <v>1944</v>
       </c>
+      <c r="AI251" t="n">
+        <v>0.9947798743064417</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -30938,6 +31693,9 @@
       <c r="AH252" t="n">
         <v>1836</v>
       </c>
+      <c r="AI252" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -31066,6 +31824,9 @@
       <c r="AH253" t="n">
         <v>1836</v>
       </c>
+      <c r="AI253" t="n">
+        <v>0.9947798743064417</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -31193,6 +31954,9 @@
       </c>
       <c r="AH254" t="n">
         <v>1944</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="255">
@@ -31223,7 +31987,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31276,6 +32040,9 @@
       <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="inlineStr"/>
       <c r="AH255" t="inlineStr"/>
+      <c r="AI255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -31404,6 +32171,9 @@
       <c r="AH256" t="n">
         <v>1801</v>
       </c>
+      <c r="AI256" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -31532,6 +32302,9 @@
       <c r="AH257" t="n">
         <v>2035</v>
       </c>
+      <c r="AI257" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -31575,7 +32348,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31659,6 +32432,9 @@
       </c>
       <c r="AH258" t="n">
         <v>1801</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="259">
@@ -31703,7 +32479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31787,6 +32563,9 @@
       </c>
       <c r="AH259" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="260">
@@ -31831,7 +32610,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31915,6 +32694,9 @@
       </c>
       <c r="AH260" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="261">
@@ -32044,6 +32826,9 @@
       <c r="AH261" t="n">
         <v>1801</v>
       </c>
+      <c r="AI261" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -32172,6 +32957,9 @@
       <c r="AH262" t="n">
         <v>2035</v>
       </c>
+      <c r="AI262" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -32215,7 +33003,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32299,6 +33087,9 @@
       </c>
       <c r="AH263" t="n">
         <v>1801</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="264">
@@ -32343,7 +33134,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32427,6 +33218,9 @@
       </c>
       <c r="AH264" t="n">
         <v>2035</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="265">
@@ -32510,6 +33304,9 @@
       <c r="AF265" t="inlineStr"/>
       <c r="AG265" t="inlineStr"/>
       <c r="AH265" t="inlineStr"/>
+      <c r="AI265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -32638,6 +33435,9 @@
       <c r="AH266" t="n">
         <v>1965</v>
       </c>
+      <c r="AI266" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -32765,6 +33565,9 @@
       </c>
       <c r="AH267" t="n">
         <v>1706</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>0.1353315566860566</v>
       </c>
     </row>
     <row r="268">
@@ -32848,6 +33651,9 @@
       <c r="AF268" t="inlineStr"/>
       <c r="AG268" t="inlineStr"/>
       <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -32976,6 +33782,9 @@
       <c r="AH269" t="n">
         <v>1730</v>
       </c>
+      <c r="AI269" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -33104,6 +33913,9 @@
       <c r="AH270" t="n">
         <v>1971</v>
       </c>
+      <c r="AI270" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -33232,6 +34044,9 @@
       <c r="AH271" t="n">
         <v>1971</v>
       </c>
+      <c r="AI271" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -33359,6 +34174,9 @@
       </c>
       <c r="AH272" t="n">
         <v>1730</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="273">
@@ -33389,7 +34207,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33442,6 +34260,9 @@
       <c r="AF273" t="inlineStr"/>
       <c r="AG273" t="inlineStr"/>
       <c r="AH273" t="inlineStr"/>
+      <c r="AI273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -33485,7 +34306,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33569,6 +34390,9 @@
       </c>
       <c r="AH274" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="275">
@@ -33613,7 +34437,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33697,6 +34521,9 @@
       </c>
       <c r="AH275" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>0.2180032159206161</v>
       </c>
     </row>
     <row r="276">
@@ -33741,7 +34568,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33825,6 +34652,9 @@
       </c>
       <c r="AH276" t="n">
         <v>1844</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="277">
@@ -33869,7 +34699,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -33953,6 +34783,9 @@
       </c>
       <c r="AH277" t="n">
         <v>1594</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="278">
@@ -33983,7 +34816,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -34036,6 +34869,9 @@
       <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr"/>
       <c r="AH278" t="inlineStr"/>
+      <c r="AI278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -34079,7 +34915,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34163,6 +34999,9 @@
       </c>
       <c r="AH279" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="280">
@@ -34207,7 +35046,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -34291,6 +35130,9 @@
       </c>
       <c r="AH280" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
@@ -34335,7 +35177,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -34419,6 +35261,9 @@
       </c>
       <c r="AH281" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="282">
@@ -34463,7 +35308,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -34547,6 +35392,9 @@
       </c>
       <c r="AH282" t="n">
         <v>1765</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="283">
@@ -34591,7 +35439,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -34675,6 +35523,9 @@
       </c>
       <c r="AH283" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="284">
@@ -34719,7 +35570,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -34803,6 +35654,9 @@
       </c>
       <c r="AH284" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="285">
@@ -34886,6 +35740,9 @@
       <c r="AF285" t="inlineStr"/>
       <c r="AG285" t="inlineStr"/>
       <c r="AH285" t="inlineStr"/>
+      <c r="AI285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -35014,6 +35871,9 @@
       <c r="AH286" t="n">
         <v>2001</v>
       </c>
+      <c r="AI286" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -35141,6 +36001,9 @@
       </c>
       <c r="AH287" t="n">
         <v>1542</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="288">
@@ -35224,6 +36087,9 @@
       <c r="AF288" t="inlineStr"/>
       <c r="AG288" t="inlineStr"/>
       <c r="AH288" t="inlineStr"/>
+      <c r="AI288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -35352,6 +36218,9 @@
       <c r="AH289" t="n">
         <v>1958</v>
       </c>
+      <c r="AI289" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -35480,6 +36349,9 @@
       <c r="AH290" t="n">
         <v>1841</v>
       </c>
+      <c r="AI290" t="n">
+        <v>0.2018548187754244</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -35608,6 +36480,9 @@
       <c r="AH291" t="n">
         <v>1841</v>
       </c>
+      <c r="AI291" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -35735,6 +36610,9 @@
       </c>
       <c r="AH292" t="n">
         <v>1841</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="293">
@@ -35818,6 +36696,9 @@
       <c r="AF293" t="inlineStr"/>
       <c r="AG293" t="inlineStr"/>
       <c r="AH293" t="inlineStr"/>
+      <c r="AI293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -35861,7 +36742,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -35945,6 +36826,9 @@
       </c>
       <c r="AH294" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="295">
@@ -35989,7 +36873,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36073,6 +36957,9 @@
       </c>
       <c r="AH295" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="296">
@@ -36117,7 +37004,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -36201,6 +37088,9 @@
       </c>
       <c r="AH296" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="297">
@@ -36245,7 +37135,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36329,6 +37219,9 @@
       </c>
       <c r="AH297" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="298">
@@ -36373,7 +37266,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -36457,6 +37350,9 @@
       </c>
       <c r="AH298" t="n">
         <v>1937</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="299">
@@ -36487,7 +37383,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36540,6 +37436,9 @@
       <c r="AF299" t="inlineStr"/>
       <c r="AG299" t="inlineStr"/>
       <c r="AH299" t="inlineStr"/>
+      <c r="AI299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -36583,7 +37482,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36667,6 +37566,9 @@
       </c>
       <c r="AH300" t="n">
         <v>1681</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="301">
@@ -36711,7 +37613,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -36795,6 +37697,9 @@
       </c>
       <c r="AH301" t="n">
         <v>1681</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="302">
@@ -36839,7 +37744,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -36923,6 +37828,9 @@
       </c>
       <c r="AH302" t="n">
         <v>2044</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="303">
@@ -36967,7 +37875,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -37051,6 +37959,9 @@
       </c>
       <c r="AH303" t="n">
         <v>2044</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="304">
@@ -37095,7 +38006,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37179,6 +38090,9 @@
       </c>
       <c r="AH304" t="n">
         <v>1681</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="305">
@@ -37223,7 +38137,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37307,6 +38221,9 @@
       </c>
       <c r="AH305" t="n">
         <v>2044</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>0.2228692071356927</v>
       </c>
     </row>
     <row r="306">
@@ -37351,7 +38268,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -37435,6 +38352,9 @@
       </c>
       <c r="AH306" t="n">
         <v>1681</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="307">
@@ -37465,7 +38385,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37518,6 +38438,9 @@
       <c r="AF307" t="inlineStr"/>
       <c r="AG307" t="inlineStr"/>
       <c r="AH307" t="inlineStr"/>
+      <c r="AI307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -37561,7 +38484,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37645,6 +38568,9 @@
       </c>
       <c r="AH308" t="n">
         <v>1741</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>0.01830551439483488</v>
       </c>
     </row>
     <row r="309">
@@ -37689,7 +38615,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -37773,6 +38699,9 @@
       </c>
       <c r="AH309" t="n">
         <v>1741</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>0.03016206727242828</v>
       </c>
     </row>
     <row r="310">
@@ -37817,7 +38746,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -37901,6 +38830,9 @@
       </c>
       <c r="AH310" t="n">
         <v>1741</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>0.04966396370971661</v>
       </c>
     </row>
     <row r="311">
@@ -37931,7 +38863,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -37984,6 +38916,9 @@
       <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="inlineStr"/>
       <c r="AH311" t="inlineStr"/>
+      <c r="AI311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -38112,6 +39047,9 @@
       <c r="AH312" t="n">
         <v>2112</v>
       </c>
+      <c r="AI312" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -38240,6 +39178,9 @@
       <c r="AH313" t="n">
         <v>2112</v>
       </c>
+      <c r="AI313" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -38367,6 +39308,9 @@
       </c>
       <c r="AH314" t="n">
         <v>2112</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="315">
@@ -38450,6 +39394,9 @@
       <c r="AF315" t="inlineStr"/>
       <c r="AG315" t="inlineStr"/>
       <c r="AH315" t="inlineStr"/>
+      <c r="AI315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -38578,6 +39525,9 @@
       <c r="AH316" t="n">
         <v>2109</v>
       </c>
+      <c r="AI316" t="n">
+        <v>0.01110896429646851</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -38706,6 +39656,9 @@
       <c r="AH317" t="n">
         <v>2109</v>
       </c>
+      <c r="AI317" t="n">
+        <v>0.01831552635425089</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -38834,6 +39787,9 @@
       <c r="AH318" t="n">
         <v>1920</v>
       </c>
+      <c r="AI318" t="n">
+        <v>0.03019562317861916</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -38962,6 +39918,9 @@
       <c r="AH319" t="n">
         <v>2109</v>
       </c>
+      <c r="AI319" t="n">
+        <v>0.04978092491367309</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -39089,6 +40048,9 @@
       </c>
       <c r="AH320" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>0.08206355881691525</v>
       </c>
     </row>
     <row r="321">
@@ -39119,7 +40081,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -39172,6 +40134,9 @@
       <c r="AF321" t="inlineStr"/>
       <c r="AG321" t="inlineStr"/>
       <c r="AH321" t="inlineStr"/>
+      <c r="AI321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -39215,7 +40180,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -39299,6 +40264,9 @@
       </c>
       <c r="AH322" t="n">
         <v>2138</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="323">
@@ -39343,7 +40311,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -39427,6 +40395,9 @@
       </c>
       <c r="AH323" t="n">
         <v>2138</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="324">
@@ -39471,7 +40442,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -39555,6 +40526,9 @@
       </c>
       <c r="AH324" t="n">
         <v>2138</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="325">
@@ -39599,7 +40573,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -39683,6 +40657,9 @@
       </c>
       <c r="AH325" t="n">
         <v>2138</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="326">
@@ -39727,7 +40704,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -39811,6 +40788,9 @@
       </c>
       <c r="AH326" t="n">
         <v>1814</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>0.9988304897349445</v>
       </c>
     </row>
     <row r="327">
@@ -39855,7 +40835,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -39939,6 +40919,9 @@
       </c>
       <c r="AH327" t="n">
         <v>1814</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="328">
@@ -39983,7 +40966,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -40067,6 +41050,9 @@
       </c>
       <c r="AH328" t="n">
         <v>1814</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>0.08208021378543721</v>
       </c>
     </row>
     <row r="329">
@@ -40111,7 +41097,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -40195,6 +41181,9 @@
       </c>
       <c r="AH329" t="n">
         <v>2138</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>0.08208021378543721</v>
       </c>
     </row>
     <row r="330">
@@ -40239,7 +41228,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -40323,6 +41312,9 @@
       </c>
       <c r="AH330" t="n">
         <v>1814</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="331">
@@ -40406,6 +41398,9 @@
       <c r="AF331" t="inlineStr"/>
       <c r="AG331" t="inlineStr"/>
       <c r="AH331" t="inlineStr"/>
+      <c r="AI331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -40533,6 +41528,9 @@
       </c>
       <c r="AH332" t="n">
         <v>1919</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>0.9947798743064417</v>
       </c>
     </row>
     <row r="333">
@@ -40616,6 +41614,9 @@
       <c r="AF333" t="inlineStr"/>
       <c r="AG333" t="inlineStr"/>
       <c r="AH333" t="inlineStr"/>
+      <c r="AI333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -40744,6 +41745,9 @@
       <c r="AH334" t="n">
         <v>1922</v>
       </c>
+      <c r="AI334" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -40787,7 +41791,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -40871,6 +41875,9 @@
       </c>
       <c r="AH335" t="n">
         <v>1776</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="336">
@@ -40915,7 +41922,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -40999,6 +42006,9 @@
       </c>
       <c r="AH336" t="n">
         <v>1922</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="337">
@@ -41043,7 +42053,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41127,6 +42137,9 @@
       </c>
       <c r="AH337" t="n">
         <v>1922</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="338">
@@ -41256,6 +42269,9 @@
       <c r="AH338" t="n">
         <v>1776</v>
       </c>
+      <c r="AI338" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -41384,6 +42400,9 @@
       <c r="AH339" t="n">
         <v>1922</v>
       </c>
+      <c r="AI339" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -41512,6 +42531,9 @@
       <c r="AH340" t="n">
         <v>1922</v>
       </c>
+      <c r="AI340" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -41555,7 +42577,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -41639,6 +42661,9 @@
       </c>
       <c r="AH341" t="n">
         <v>1776</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="342">
@@ -41669,7 +42694,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -41722,6 +42747,9 @@
       <c r="AF342" t="inlineStr"/>
       <c r="AG342" t="inlineStr"/>
       <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -41765,7 +42793,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -41849,6 +42877,9 @@
       </c>
       <c r="AH343" t="n">
         <v>2018</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="344">
@@ -41893,7 +42924,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -41977,6 +43008,9 @@
       </c>
       <c r="AH344" t="n">
         <v>2018</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>0.9975273768433653</v>
       </c>
     </row>
     <row r="345">
@@ -42021,7 +43055,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -42105,6 +43139,9 @@
       </c>
       <c r="AH345" t="n">
         <v>1713</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="346">
@@ -42149,7 +43186,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -42233,6 +43270,9 @@
       </c>
       <c r="AH346" t="n">
         <v>2018</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="347">
@@ -42277,7 +43317,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -42361,6 +43401,9 @@
       </c>
       <c r="AH347" t="n">
         <v>2018</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="348">
@@ -42405,7 +43448,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -42489,6 +43532,9 @@
       </c>
       <c r="AH348" t="n">
         <v>2018</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="349">
@@ -42533,7 +43579,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -42617,6 +43663,9 @@
       </c>
       <c r="AH349" t="n">
         <v>1713</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="350">
@@ -42661,7 +43710,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -42745,6 +43794,9 @@
       </c>
       <c r="AH350" t="n">
         <v>1713</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="351">
@@ -42789,7 +43841,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -42873,6 +43925,9 @@
       </c>
       <c r="AH351" t="n">
         <v>1713</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="352">
@@ -42956,6 +44011,9 @@
       <c r="AF352" t="inlineStr"/>
       <c r="AG352" t="inlineStr"/>
       <c r="AH352" t="inlineStr"/>
+      <c r="AI352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -43084,6 +44142,9 @@
       <c r="AH353" t="n">
         <v>1856</v>
       </c>
+      <c r="AI353" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -43212,6 +44273,9 @@
       <c r="AH354" t="n">
         <v>1856</v>
       </c>
+      <c r="AI354" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -43339,6 +44403,9 @@
       </c>
       <c r="AH355" t="n">
         <v>1856</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="356">
@@ -43422,6 +44489,9 @@
       <c r="AF356" t="inlineStr"/>
       <c r="AG356" t="inlineStr"/>
       <c r="AH356" t="inlineStr"/>
+      <c r="AI356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -43550,6 +44620,9 @@
       <c r="AH357" t="n">
         <v>1710</v>
       </c>
+      <c r="AI357" t="n">
+        <v>0.133848362243797</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -43678,6 +44751,9 @@
       <c r="AH358" t="n">
         <v>2073</v>
       </c>
+      <c r="AI358" t="n">
+        <v>0.2018548187754244</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -43806,6 +44882,9 @@
       <c r="AH359" t="n">
         <v>1710</v>
       </c>
+      <c r="AI359" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -43933,6 +45012,9 @@
       </c>
       <c r="AH360" t="n">
         <v>1710</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>0.2018548187754244</v>
       </c>
     </row>
     <row r="361">
@@ -44016,6 +45098,9 @@
       <c r="AF361" t="inlineStr"/>
       <c r="AG361" t="inlineStr"/>
       <c r="AH361" t="inlineStr"/>
+      <c r="AI361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -44059,7 +45144,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -44143,6 +45228,9 @@
       </c>
       <c r="AH362" t="n">
         <v>1849</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="363">
@@ -44272,6 +45360,9 @@
       <c r="AH363" t="n">
         <v>1849</v>
       </c>
+      <c r="AI363" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -44399,6 +45490,9 @@
       </c>
       <c r="AH364" t="n">
         <v>1852</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="365">
@@ -44429,7 +45523,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -44482,6 +45576,9 @@
       <c r="AF365" t="inlineStr"/>
       <c r="AG365" t="inlineStr"/>
       <c r="AH365" t="inlineStr"/>
+      <c r="AI365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -44525,7 +45622,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -44609,6 +45706,9 @@
       </c>
       <c r="AH366" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>0.01110898934411393</v>
       </c>
     </row>
     <row r="367">
@@ -44653,7 +45753,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -44737,6 +45837,9 @@
       </c>
       <c r="AH367" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="368">
@@ -44781,7 +45884,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -44865,6 +45968,9 @@
       </c>
       <c r="AH368" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>0.03019562317861916</v>
       </c>
     </row>
     <row r="369">
@@ -44909,7 +46015,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -44993,6 +46099,9 @@
       </c>
       <c r="AH369" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>0.01831561377877704</v>
       </c>
     </row>
     <row r="370">
@@ -45037,7 +46146,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -45121,6 +46230,9 @@
       </c>
       <c r="AH370" t="n">
         <v>1678</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>0.03019729578009067</v>
       </c>
     </row>
     <row r="371">
@@ -45165,7 +46277,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -45249,6 +46361,9 @@
       </c>
       <c r="AH371" t="n">
         <v>1644</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>0.0111088520420972</v>
       </c>
     </row>
     <row r="372">
@@ -45332,6 +46447,9 @@
       <c r="AF372" t="inlineStr"/>
       <c r="AG372" t="inlineStr"/>
       <c r="AH372" t="inlineStr"/>
+      <c r="AI372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -45460,6 +46578,9 @@
       <c r="AH373" t="n">
         <v>1733</v>
       </c>
+      <c r="AI373" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -45588,6 +46709,9 @@
       <c r="AH374" t="n">
         <v>1733</v>
       </c>
+      <c r="AI374" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -45716,6 +46840,9 @@
       <c r="AH375" t="n">
         <v>1969</v>
       </c>
+      <c r="AI375" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -45844,6 +46971,9 @@
       <c r="AH376" t="n">
         <v>1733</v>
       </c>
+      <c r="AI376" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -45972,6 +47102,9 @@
       <c r="AH377" t="n">
         <v>1733</v>
       </c>
+      <c r="AI377" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -46099,6 +47232,9 @@
       </c>
       <c r="AH378" t="n">
         <v>1969</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="379">
@@ -46182,6 +47318,9 @@
       <c r="AF379" t="inlineStr"/>
       <c r="AG379" t="inlineStr"/>
       <c r="AH379" t="inlineStr"/>
+      <c r="AI379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -46310,6 +47449,9 @@
       <c r="AH380" t="n">
         <v>1915</v>
       </c>
+      <c r="AI380" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -46437,6 +47579,9 @@
       </c>
       <c r="AH381" t="n">
         <v>1915</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="382">
@@ -46520,6 +47665,9 @@
       <c r="AF382" t="inlineStr"/>
       <c r="AG382" t="inlineStr"/>
       <c r="AH382" t="inlineStr"/>
+      <c r="AI382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -46648,6 +47796,9 @@
       <c r="AH383" t="n">
         <v>1985</v>
       </c>
+      <c r="AI383" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -46776,6 +47927,9 @@
       <c r="AH384" t="n">
         <v>1985</v>
       </c>
+      <c r="AI384" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -46904,6 +48058,9 @@
       <c r="AH385" t="n">
         <v>1853</v>
       </c>
+      <c r="AI385" t="n">
+        <v>0.2219653926664312</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -47032,6 +48189,9 @@
       <c r="AH386" t="n">
         <v>1853</v>
       </c>
+      <c r="AI386" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -47160,6 +48320,9 @@
       <c r="AH387" t="n">
         <v>1985</v>
       </c>
+      <c r="AI387" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -47287,6 +48450,9 @@
       </c>
       <c r="AH388" t="n">
         <v>1853</v>
+      </c>
+      <c r="AI388" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="389">
@@ -47317,7 +48483,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47370,6 +48536,9 @@
       <c r="AF389" t="inlineStr"/>
       <c r="AG389" t="inlineStr"/>
       <c r="AH389" t="inlineStr"/>
+      <c r="AI389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -47498,6 +48667,9 @@
       <c r="AH390" t="n">
         <v>1795</v>
       </c>
+      <c r="AI390" t="n">
+        <v>0.9770226300899744</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -47626,6 +48798,9 @@
       <c r="AH391" t="n">
         <v>1795</v>
       </c>
+      <c r="AI391" t="n">
+        <v>0.9525741268224334</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -47754,6 +48929,9 @@
       <c r="AH392" t="n">
         <v>1795</v>
       </c>
+      <c r="AI392" t="n">
+        <v>0.9046505351008906</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -47882,6 +49060,9 @@
       <c r="AH393" t="n">
         <v>2077</v>
       </c>
+      <c r="AI393" t="n">
+        <v>0.9890130573694068</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -48009,6 +49190,9 @@
       </c>
       <c r="AH394" t="n">
         <v>2077</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="395">
@@ -48039,7 +49223,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48092,6 +49276,9 @@
       <c r="AF395" t="inlineStr"/>
       <c r="AG395" t="inlineStr"/>
       <c r="AH395" t="inlineStr"/>
+      <c r="AI395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -48135,7 +49322,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -48219,6 +49406,9 @@
       </c>
       <c r="AH396" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI396" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="397">
@@ -48263,7 +49453,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48347,6 +49537,9 @@
       </c>
       <c r="AH397" t="n">
         <v>2141</v>
+      </c>
+      <c r="AI397" t="n">
+        <v>0.2230718807107008</v>
       </c>
     </row>
     <row r="398">
@@ -48391,7 +49584,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48475,6 +49668,9 @@
       </c>
       <c r="AH398" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="399">
@@ -48519,7 +49715,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48603,6 +49799,9 @@
       </c>
       <c r="AH399" t="n">
         <v>2141</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="400">
@@ -48647,7 +49846,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48731,6 +49930,9 @@
       </c>
       <c r="AH400" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>0.1353185835967217</v>
       </c>
     </row>
     <row r="401">
@@ -48775,7 +49977,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -48859,6 +50061,9 @@
       </c>
       <c r="AH401" t="n">
         <v>1743</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>0.2219653926664312</v>
       </c>
     </row>
     <row r="402">
@@ -48889,7 +50094,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48942,6 +50147,9 @@
       <c r="AF402" t="inlineStr"/>
       <c r="AG402" t="inlineStr"/>
       <c r="AH402" t="inlineStr"/>
+      <c r="AI402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -49070,6 +50278,9 @@
       <c r="AH403" t="n">
         <v>1831</v>
       </c>
+      <c r="AI403" t="n">
+        <v>0.1824255238063563</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -49197,6 +50408,9 @@
       </c>
       <c r="AH404" t="n">
         <v>1927</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="405">
@@ -49280,6 +50494,9 @@
       <c r="AF405" t="inlineStr"/>
       <c r="AG405" t="inlineStr"/>
       <c r="AH405" t="inlineStr"/>
+      <c r="AI405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -49408,6 +50625,9 @@
       <c r="AH406" t="n">
         <v>1656</v>
       </c>
+      <c r="AI406" t="n">
+        <v>0.00150343897573361</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -49536,6 +50756,9 @@
       <c r="AH407" t="n">
         <v>1937</v>
       </c>
+      <c r="AI407" t="n">
+        <v>0.002478748778403198</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -49664,6 +50887,9 @@
       <c r="AH408" t="n">
         <v>1656</v>
       </c>
+      <c r="AI408" t="n">
+        <v>0.01110898934411393</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -49791,6 +51017,9 @@
       </c>
       <c r="AH409" t="n">
         <v>1656</v>
+      </c>
+      <c r="AI409" t="n">
+        <v>0.01831513455495917</v>
       </c>
     </row>
     <row r="410">
@@ -49821,7 +51050,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49874,6 +51103,9 @@
       <c r="AF410" t="inlineStr"/>
       <c r="AG410" t="inlineStr"/>
       <c r="AH410" t="inlineStr"/>
+      <c r="AI410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -49917,7 +51149,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50001,6 +51233,9 @@
       </c>
       <c r="AH411" t="n">
         <v>1680</v>
+      </c>
+      <c r="AI411" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="412">
@@ -50045,7 +51280,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -50129,6 +51364,9 @@
       </c>
       <c r="AH412" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI412" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="413">
@@ -50173,7 +51411,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -50257,6 +51495,9 @@
       </c>
       <c r="AH413" t="n">
         <v>1680</v>
+      </c>
+      <c r="AI413" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="414">
@@ -50301,7 +51542,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50385,6 +51626,9 @@
       </c>
       <c r="AH414" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI414" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="415">
@@ -50429,7 +51673,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -50513,6 +51757,9 @@
       </c>
       <c r="AH415" t="n">
         <v>1687</v>
+      </c>
+      <c r="AI415" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="416">
@@ -50596,6 +51843,9 @@
       <c r="AF416" t="inlineStr"/>
       <c r="AG416" t="inlineStr"/>
       <c r="AH416" t="inlineStr"/>
+      <c r="AI416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -50724,6 +51974,9 @@
       <c r="AH417" t="n">
         <v>1798</v>
       </c>
+      <c r="AI417" t="n">
+        <v>0.1350006500813721</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -50852,6 +52105,9 @@
       <c r="AH418" t="n">
         <v>1920</v>
       </c>
+      <c r="AI418" t="n">
+        <v>0.1350006500813721</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -50980,6 +52236,9 @@
       <c r="AH419" t="n">
         <v>1920</v>
       </c>
+      <c r="AI419" t="n">
+        <v>0.1350006500813721</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -51107,6 +52366,9 @@
       </c>
       <c r="AH420" t="n">
         <v>1920</v>
+      </c>
+      <c r="AI420" t="n">
+        <v>0.1350006500813721</v>
       </c>
     </row>
     <row r="421">
@@ -51137,7 +52399,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51190,6 +52452,9 @@
       <c r="AF421" t="inlineStr"/>
       <c r="AG421" t="inlineStr"/>
       <c r="AH421" t="inlineStr"/>
+      <c r="AI421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -51233,7 +52498,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51317,6 +52582,9 @@
       </c>
       <c r="AH422" t="n">
         <v>2005</v>
+      </c>
+      <c r="AI422" t="n">
+        <v>0.1824255238063563</v>
       </c>
     </row>
     <row r="423">
@@ -51361,7 +52629,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51445,6 +52713,9 @@
       </c>
       <c r="AH423" t="n">
         <v>1971</v>
+      </c>
+      <c r="AI423" t="n">
+        <v>0.9046505351008906</v>
       </c>
     </row>
     <row r="424">
@@ -51475,7 +52746,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51528,6 +52799,9 @@
       <c r="AF424" t="inlineStr"/>
       <c r="AG424" t="inlineStr"/>
       <c r="AH424" t="inlineStr"/>
+      <c r="AI424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -51656,6 +52930,9 @@
       <c r="AH425" t="n">
         <v>2143</v>
       </c>
+      <c r="AI425" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -51784,6 +53061,9 @@
       <c r="AH426" t="n">
         <v>1809</v>
       </c>
+      <c r="AI426" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -51912,6 +53192,9 @@
       <c r="AH427" t="n">
         <v>1809</v>
       </c>
+      <c r="AI427" t="n">
+        <v>0.679178699175393</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -52040,6 +53323,9 @@
       <c r="AH428" t="n">
         <v>2143</v>
       </c>
+      <c r="AI428" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -52167,6 +53453,9 @@
       </c>
       <c r="AH429" t="n">
         <v>1809</v>
+      </c>
+      <c r="AI429" t="n">
+        <v>0.679178699175393</v>
       </c>
     </row>
     <row r="430">
@@ -52197,7 +53486,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -52250,6 +53539,9 @@
       <c r="AF430" t="inlineStr"/>
       <c r="AG430" t="inlineStr"/>
       <c r="AH430" t="inlineStr"/>
+      <c r="AI430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -52293,7 +53585,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -52377,6 +53669,9 @@
       </c>
       <c r="AH431" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI431" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="432">
@@ -52421,7 +53716,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -52505,6 +53800,9 @@
       </c>
       <c r="AH432" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI432" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="433">
@@ -52549,7 +53847,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -52633,6 +53931,9 @@
       </c>
       <c r="AH433" t="n">
         <v>1766</v>
+      </c>
+      <c r="AI433" t="n">
+        <v>0.133848362243797</v>
       </c>
     </row>
     <row r="434">
@@ -52716,6 +54017,9 @@
       <c r="AF434" t="inlineStr"/>
       <c r="AG434" t="inlineStr"/>
       <c r="AH434" t="inlineStr"/>
+      <c r="AI434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -52844,6 +54148,9 @@
       <c r="AH435" t="n">
         <v>1963</v>
       </c>
+      <c r="AI435" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -52972,6 +54279,9 @@
       <c r="AH436" t="n">
         <v>2048</v>
       </c>
+      <c r="AI436" t="n">
+        <v>0.03016206727242828</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -53100,6 +54410,9 @@
       <c r="AH437" t="n">
         <v>2048</v>
       </c>
+      <c r="AI437" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -53228,6 +54541,9 @@
       <c r="AH438" t="n">
         <v>2048</v>
       </c>
+      <c r="AI438" t="n">
+        <v>0.0492400607039608</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -53356,6 +54672,9 @@
       <c r="AH439" t="n">
         <v>1963</v>
       </c>
+      <c r="AI439" t="n">
+        <v>0.002478446312092544</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -53399,7 +54718,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53483,6 +54802,9 @@
       </c>
       <c r="AH440" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI440" t="n">
+        <v>0.320821300824607</v>
       </c>
     </row>
     <row r="441">
@@ -53612,6 +54934,9 @@
       <c r="AH441" t="n">
         <v>1963</v>
       </c>
+      <c r="AI441" t="n">
+        <v>0.002478446312092544</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -53740,6 +55065,9 @@
       <c r="AH442" t="n">
         <v>1963</v>
       </c>
+      <c r="AI442" t="n">
+        <v>0.0492400607039608</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -53867,6 +55195,9 @@
       </c>
       <c r="AH443" t="n">
         <v>1963</v>
+      </c>
+      <c r="AI443" t="n">
+        <v>0.08019890124645353</v>
       </c>
     </row>
     <row r="444">
@@ -53897,7 +55228,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -53950,6 +55281,9 @@
       <c r="AF444" t="inlineStr"/>
       <c r="AG444" t="inlineStr"/>
       <c r="AH444" t="inlineStr"/>
+      <c r="AI444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -53993,7 +55327,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54077,6 +55411,9 @@
       </c>
       <c r="AH445" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI445" t="n">
+        <v>0.9890130573694068</v>
       </c>
     </row>
     <row r="446">
@@ -54121,7 +55458,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -54205,6 +55542,9 @@
       </c>
       <c r="AH446" t="n">
         <v>1936</v>
+      </c>
+      <c r="AI446" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="447">
@@ -54249,7 +55589,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -54333,6 +55673,9 @@
       </c>
       <c r="AH447" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI447" t="n">
+        <v>0.8175744761936437</v>
       </c>
     </row>
     <row r="448">
@@ -54377,7 +55720,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -54461,6 +55804,9 @@
       </c>
       <c r="AH448" t="n">
         <v>1936</v>
+      </c>
+      <c r="AI448" t="n">
+        <v>0.9525741268224334</v>
       </c>
     </row>
     <row r="449">
@@ -54505,7 +55851,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -54589,6 +55935,9 @@
       </c>
       <c r="AH449" t="n">
         <v>2006</v>
+      </c>
+      <c r="AI449" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="450">
@@ -54619,7 +55968,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54672,6 +56021,9 @@
       <c r="AF450" t="inlineStr"/>
       <c r="AG450" t="inlineStr"/>
       <c r="AH450" t="inlineStr"/>
+      <c r="AI450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -54715,7 +56067,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -54799,6 +56151,9 @@
       </c>
       <c r="AH451" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI451" t="n">
+        <v>0.9994472213630764</v>
       </c>
     </row>
     <row r="452">
@@ -54843,7 +56198,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -54927,6 +56282,9 @@
       </c>
       <c r="AH452" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI452" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="453">
@@ -55056,6 +56414,9 @@
       <c r="AH453" t="n">
         <v>1902</v>
       </c>
+      <c r="AI453" t="n">
+        <v>0.8175744761936437</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -55099,7 +56460,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -55183,6 +56544,9 @@
       </c>
       <c r="AH454" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI454" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
     <row r="455">
@@ -55227,7 +56591,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -55311,6 +56675,9 @@
       </c>
       <c r="AH455" t="n">
         <v>1902</v>
+      </c>
+      <c r="AI455" t="n">
+        <v>0.9994472213630764</v>
       </c>
     </row>
     <row r="456">
@@ -55355,7 +56722,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -55439,6 +56806,9 @@
       </c>
       <c r="AH456" t="n">
         <v>2169</v>
+      </c>
+      <c r="AI456" t="n">
+        <v>0.9770226300899744</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1355,7 +1355,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4033,7 +4033,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4069,11 +4069,11 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="AC30" t="n">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4919,11 +4919,11 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="AC37" t="n">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>-1</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>-1</v>
@@ -5221,7 +5221,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6071,7 +6071,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7049,7 +7049,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7771,7 +7771,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8959,7 +8959,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9425,7 +9425,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9891,7 +9891,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9927,11 +9927,11 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="AC79" t="n">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10055,10 +10055,10 @@
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80" t="n">
         <v>-1</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81" t="n">
         <v>-3</v>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82" t="n">
         <v>-3</v>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE83" t="n">
         <v>-3</v>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE84" t="n">
         <v>-3</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85" t="n">
         <v>-3</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86" t="n">
         <v>-3</v>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87" t="n">
         <v>-3</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE88" t="n">
         <v>-3</v>
@@ -11125,7 +11125,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Norway', 'Italy']</t>
+          <t>['Italy', 'Norway', 'Mexico']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -12733,11 +12733,11 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="AC102" t="n">
@@ -12861,10 +12861,10 @@
         </is>
       </c>
       <c r="AC103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE103" t="n">
         <v>-3</v>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="AD104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE104" t="n">
         <v>-6</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="AD105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE105" t="n">
         <v>-3</v>
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="AD106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE106" t="n">
         <v>-6</v>
@@ -13291,7 +13291,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13327,11 +13327,11 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC107" t="n">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13455,10 +13455,10 @@
         </is>
       </c>
       <c r="AC108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
         <v>-4</v>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE109" t="n">
         <v>-6</v>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="AD110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE110" t="n">
         <v>-6</v>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="AD111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE111" t="n">
         <v>-6</v>
@@ -14607,7 +14607,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15457,7 +15457,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17925,7 +17925,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -19241,7 +19241,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19835,7 +19835,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20429,7 +20429,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22595,7 +22595,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23829,7 +23829,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24309,7 +24309,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24437,7 +24437,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25077,7 +25077,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25191,7 +25191,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -27357,7 +27357,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27581,7 +27581,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27837,7 +27837,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28093,7 +28093,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -29057,7 +29057,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29281,7 +29281,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29409,7 +29409,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29779,7 +29779,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30387,7 +30387,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30501,7 +30501,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31109,7 +31109,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31223,7 +31223,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31831,7 +31831,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32215,7 +32215,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32343,7 +32343,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -33389,7 +33389,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33485,7 +33485,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33869,7 +33869,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34929,7 +34929,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -35765,7 +35765,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -38397,7 +38397,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38493,7 +38493,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38621,7 +38621,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -38749,7 +38749,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -39119,7 +39119,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -39215,7 +39215,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -39343,7 +39343,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -39471,7 +39471,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -39599,7 +39599,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -39727,7 +39727,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -39855,7 +39855,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -40239,7 +40239,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -40353,7 +40353,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -40449,7 +40449,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -40787,7 +40787,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -41043,7 +41043,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -41669,7 +41669,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -41765,7 +41765,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -41893,7 +41893,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -42021,7 +42021,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -42149,7 +42149,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -42277,7 +42277,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -42405,7 +42405,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -42533,7 +42533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -42661,7 +42661,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -43369,7 +43369,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -43465,7 +43465,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -43593,7 +43593,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -43721,7 +43721,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -43849,7 +43849,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -46129,7 +46129,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46353,7 +46353,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47203,7 +47203,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47317,7 +47317,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -48889,7 +48889,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48985,7 +48985,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49227,7 +49227,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -49821,7 +49821,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49917,7 +49917,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50301,7 +50301,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50543,7 +50543,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51137,7 +51137,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51233,7 +51233,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51361,7 +51361,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -52197,7 +52197,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -52293,7 +52293,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -52421,7 +52421,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -52549,7 +52549,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -52759,7 +52759,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -53015,7 +53015,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53143,7 +53143,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53271,7 +53271,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53527,7 +53527,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53783,7 +53783,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -53897,7 +53897,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -53993,7 +53993,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54971,7 +54971,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4033,7 +4033,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4883,7 +4883,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5221,7 +5221,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6071,7 +6071,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7049,7 +7049,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8959,7 +8959,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9425,7 +9425,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9891,7 +9891,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11125,7 +11125,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11463,7 +11463,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Sweden', 'Cameroon']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12697,7 +12697,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -16435,7 +16435,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -17925,7 +17925,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18775,7 +18775,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19127,7 +19127,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19241,7 +19241,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19835,7 +19835,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -22257,7 +22257,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22353,7 +22353,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22481,7 +22481,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22595,7 +22595,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23715,7 +23715,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -25191,7 +25191,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25657,7 +25657,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26137,7 +26137,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -27357,7 +27357,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -28207,7 +28207,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28303,7 +28303,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29057,7 +29057,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29281,7 +29281,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29409,7 +29409,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -30501,7 +30501,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31109,7 +31109,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -32795,7 +32795,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32891,7 +32891,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33389,7 +33389,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33485,7 +33485,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33869,7 +33869,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34833,7 +34833,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -34929,7 +34929,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35171,7 +35171,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -35765,7 +35765,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36117,7 +36117,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -36487,7 +36487,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36583,7 +36583,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36711,7 +36711,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -37095,7 +37095,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37351,7 +37351,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38397,7 +38397,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38493,7 +38493,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38621,7 +38621,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -38749,7 +38749,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -40787,7 +40787,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -41043,7 +41043,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -42903,7 +42903,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -42999,7 +42999,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -43127,7 +43127,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -43255,7 +43255,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -44059,7 +44059,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47203,7 +47203,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47317,7 +47317,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -47541,7 +47541,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -47669,7 +47669,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -47797,7 +47797,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -47925,7 +47925,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -48039,7 +48039,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48263,7 +48263,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48391,7 +48391,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48775,7 +48775,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -48889,7 +48889,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -49227,7 +49227,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -49821,7 +49821,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49917,7 +49917,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50301,7 +50301,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50543,7 +50543,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51475,7 +51475,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51571,7 +51571,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -51699,7 +51699,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -51827,7 +51827,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -51955,7 +51955,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -52083,7 +52083,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -52759,7 +52759,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -53015,7 +53015,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53143,7 +53143,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53271,7 +53271,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53527,7 +53527,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53783,7 +53783,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -53897,7 +53897,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -53993,7 +53993,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54619,7 +54619,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54715,7 +54715,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -54843,7 +54843,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -55099,7 +55099,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -55227,7 +55227,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -55355,7 +55355,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
